--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D3267-8A68-B541-BD9A-EB3F5F900327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CBD37-591F-5E4B-AA54-2654954FAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -972,6 +972,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,18 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,10 +1085,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4971767982785005E-2"/>
-          <c:y val="0.15340781139999113"/>
-          <c:w val="0.84149134090981581"/>
-          <c:h val="0.71317857950620589"/>
+          <c:x val="8.3024905370712457E-2"/>
+          <c:y val="0.12869003410743282"/>
+          <c:w val="0.87202234185615335"/>
+          <c:h val="0.69944652191551782"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1535,6 +1535,7 @@
         <c:axId val="641670895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1568,7 +1569,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1598,8 +1599,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37461150880730126"/>
-          <c:y val="0.89459469194912034"/>
+          <c:x val="0.3653194296342116"/>
+          <c:y val="0.9000876257403424"/>
           <c:w val="0.27823225739166713"/>
           <c:h val="5.8698584306973785E-2"/>
         </c:manualLayout>
@@ -2188,8 +2189,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>183444</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2517,10 +2518,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z61" sqref="Z61"/>
+      <selection pane="bottomRight" activeCell="Y104" sqref="Y104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4125,7 @@
       <c r="V19" s="10">
         <v>1751060000</v>
       </c>
-      <c r="AB19" s="66">
+      <c r="AB19" s="60">
         <f>V40-V56-V61</f>
         <v>-1165299000</v>
       </c>
@@ -8625,10 +8626,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="59" t="s">
+      <c r="AC83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="60"/>
+      <c r="AD83" s="64"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8695,10 +8696,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="61" t="s">
+      <c r="AC84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="62"/>
+      <c r="AD84" s="66"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9400,10 +9401,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="61" t="s">
+      <c r="AC93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="62"/>
+      <c r="AD93" s="66"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9769,10 +9770,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="61" t="s">
+      <c r="AC98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="62"/>
+      <c r="AD98" s="66"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10215,10 +10216,10 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="61" t="s">
+      <c r="AC104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="62"/>
+      <c r="AD104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10512,10 +10513,10 @@
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="63" t="s">
+      <c r="W109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="64"/>
+      <c r="X109" s="62"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="W110" s="50" t="s">
@@ -10557,7 +10558,7 @@
       <c r="W114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="X114" s="65">
+      <c r="X114" s="59">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CBD37-591F-5E4B-AA54-2654954FAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4F6A7A-01AF-8E4B-BEE3-3F7EECD2F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Ulta Beauty</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -919,18 +953,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,14 +979,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,6 +1014,28 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2218,6 +2258,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24war&amp;q=XNAS%3aULTA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a24war</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>553.05999999999995</v>
+    <v>330.79910000000001</v>
+    <v>1.3168</v>
+    <v>-13.17</v>
+    <v>-2.4656999999999998E-2</v>
+    <v>0.08</v>
+    <v>1.5359999999999999E-4</v>
+    <v>USD</v>
+    <v>Ulta Beauty, Inc. (Ulta Beauty) is a beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. Ulta Beauty also offers a full-service salon in every store featuring hair, skin, makeup, and brow services. The Company operates approximately 1,343 stores across 50 states.</v>
+    <v>18500</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1000 Remington Blvd Ste 120, BOLINGBROOK, IL, 60440-4708 US</v>
+    <v>532.41999999999996</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>45022.999443402347</v>
+    <v>0</v>
+    <v>520.73</v>
+    <v>26149132135</v>
+    <v>ULTA BEAUTY, INC.</v>
+    <v>ULTA BEAUTY, INC.</v>
+    <v>530</v>
+    <v>22.243400000000001</v>
+    <v>534.12</v>
+    <v>520.95000000000005</v>
+    <v>521.03</v>
+    <v>50195090</v>
+    <v>ULTA</v>
+    <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
+    <v>737791</v>
+    <v>738717</v>
+    <v>2016</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2518,10 +2998,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y104" sqref="Y104"/>
+      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2533,8 +3013,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2003</v>
@@ -2779,21 +3259,21 @@
         <v>13158000000</v>
       </c>
       <c r="AB3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3060,16 +3540,16 @@
         <v>4044510000</v>
       </c>
       <c r="AB6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3227,7 +3707,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3318,16 +3798,16 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AB9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
@@ -3557,21 +4037,21 @@
         <v>2395299000</v>
       </c>
       <c r="AB12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3822,16 +4302,16 @@
         <v>2405900000</v>
       </c>
       <c r="AB15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3908,15 +4388,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>2.5914968652037618</v>
+        <v>2.5616312828173982</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>21.292522263217879</v>
+        <v>21.047137602945249</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>22.614334721902839</v>
+        <v>22.353716896807885</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4055,7 +4535,7 @@
         <v>112450000</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4125,14 +4605,14 @@
       <c r="V19" s="10">
         <v>1751060000</v>
       </c>
-      <c r="AB19" s="60">
+      <c r="AB19" s="50">
         <f>V40-V56-V61</f>
         <v>-1165299000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4783,7 +5263,7 @@
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5228,7 +5708,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8322,7 +8802,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:U80" si="6">B79/B3</f>
@@ -8626,10 +9106,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD83" s="64"/>
+      <c r="AC83" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD83" s="54"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8696,10 +9176,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD84" s="66"/>
+      <c r="AC84" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD84" s="56"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8766,10 +9246,10 @@
         <v>55936000</v>
       </c>
       <c r="V85" s="1"/>
-      <c r="AC85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD85" s="24">
+      <c r="AC85" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD85" s="58">
         <f>V17</f>
         <v>4943000</v>
       </c>
@@ -8839,10 +9319,10 @@
         <v>281587000</v>
       </c>
       <c r="V86" s="1"/>
-      <c r="AC86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD86" s="24">
+      <c r="AC86" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD86" s="58">
         <f>V56</f>
         <v>283293000</v>
       </c>
@@ -8914,10 +9394,10 @@
       <c r="V87" s="10">
         <v>1481915000</v>
       </c>
-      <c r="AC87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD87" s="24">
+      <c r="AC87" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD87" s="58">
         <f>V61</f>
         <v>1619883000</v>
       </c>
@@ -8989,17 +9469,17 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD88" s="33">
+      <c r="AC88" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD88" s="60">
         <f>AD85/(AD86+AD87)</f>
         <v>2.5972374599091204E-3</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:U89" si="8">(-1*B88)/B3</f>
@@ -9085,10 +9565,10 @@
         <f t="shared" ref="V89" si="9">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
-      <c r="AC89" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD89" s="24">
+      <c r="AC89" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD89" s="58">
         <f>V27</f>
         <v>401163000</v>
       </c>
@@ -9101,7 +9581,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT89" s="24">
         <f>AL27</f>
@@ -9175,10 +9655,10 @@
       <c r="V90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC90" s="23" t="s">
+      <c r="AC90" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="24">
+      <c r="AD90" s="58">
         <f>V25</f>
         <v>1640273000</v>
       </c>
@@ -9250,10 +9730,10 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD91" s="33">
+      <c r="AC91" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD91" s="60">
         <f>AD89/AD90</f>
         <v>0.24457087326317023</v>
       </c>
@@ -9325,10 +9805,10 @@
       <c r="V92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC92" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD92" s="35">
+      <c r="AC92" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD92" s="62">
         <f>AD88*(1-AD91)</f>
         <v>1.9620288262673291E-3</v>
       </c>
@@ -9401,10 +9881,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD93" s="66"/>
+      <c r="AC93" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD93" s="64"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9473,10 +9953,10 @@
       <c r="V94" s="10">
         <v>-314584000</v>
       </c>
-      <c r="AC94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD94" s="36">
+      <c r="AC94" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD94" s="65">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9547,11 +10027,12 @@
       <c r="V95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD95" s="37">
-        <v>1.32</v>
+      <c r="AC95" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD95" s="66" cm="1">
+        <f t="array" ref="AD95">_FV(A1,"Beta")</f>
+        <v>1.3168</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9621,10 +10102,10 @@
       <c r="V96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD96" s="36">
+      <c r="AC96" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD96" s="65">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9695,12 +10176,12 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD97" s="35">
+      <c r="AC97" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD97" s="62">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.7776000000000002E-2</v>
+        <v>9.7638240000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9770,10 +10251,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD98" s="66"/>
+      <c r="AC98" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD98" s="64"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9842,10 +10323,10 @@
       <c r="V99" s="1">
         <v>46011000</v>
       </c>
-      <c r="AC99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD99" s="24">
+      <c r="AC99" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD99" s="58">
         <f>AD86+AD87</f>
         <v>1903176000</v>
       </c>
@@ -9917,12 +10398,12 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD100" s="33">
+      <c r="AC100" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD100" s="60">
         <f>AD99/AD103</f>
-        <v>6.7114440450628796E-2</v>
+        <v>6.7843829136664369E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9992,11 +10473,12 @@
       <c r="V101" s="1">
         <v>-56000</v>
       </c>
-      <c r="AC101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD101" s="38">
-        <v>26454000000</v>
+      <c r="AC101" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD101" s="43" cm="1">
+        <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
+        <v>26149132135</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10066,12 +10548,12 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD102" s="33">
+      <c r="AC102" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD102" s="60">
         <f>AD101/AD103</f>
-        <v>0.93288555954937125</v>
+        <v>0.93215617086333558</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10141,12 +10623,12 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD103" s="39">
+      <c r="AC103" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD103" s="67">
         <f>AD99+AD101</f>
-        <v>28357176000</v>
+        <v>28052308135</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10216,14 +10698,14 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD104" s="66"/>
+      <c r="AC104" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD104" s="56"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -10313,11 +10795,11 @@
       <c r="AA105" s="15"/>
       <c r="AB105" s="15"/>
       <c r="AC105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1345498937322259E-2</v>
+        <v>9.114719947668587E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -10334,7 +10816,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -10409,33 +10891,33 @@
         <f>V87+V93</f>
         <v>1169789000</v>
       </c>
-      <c r="W106" s="40">
+      <c r="W106" s="32">
         <f>V106*(1+$AD$106)</f>
         <v>1230766181.2619905</v>
       </c>
-      <c r="X106" s="40">
+      <c r="X106" s="32">
         <f t="shared" ref="X106:AA106" si="11">W106*(1+$AD$106)</f>
         <v>1294921898.6827736</v>
       </c>
-      <c r="Y106" s="40">
+      <c r="Y106" s="32">
         <f t="shared" si="11"/>
         <v>1362421838.7028117</v>
       </c>
-      <c r="Z106" s="40">
+      <c r="Z106" s="32">
         <f t="shared" si="11"/>
         <v>1433440324.4415867</v>
       </c>
-      <c r="AA106" s="40">
+      <c r="AA106" s="32">
         <f t="shared" si="11"/>
         <v>1508160765.8987393</v>
       </c>
-      <c r="AB106" s="41" t="s">
+      <c r="AB106" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC106" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD106" s="43">
+      <c r="AD106" s="35">
         <f>(SUM(W4:AA4)/5)</f>
         <v>5.2126649559869787E-2</v>
       </c>
@@ -10462,138 +10944,139 @@
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
-      <c r="W107" s="41"/>
-      <c r="X107" s="41"/>
-      <c r="Y107" s="41"/>
-      <c r="Z107" s="41"/>
-      <c r="AA107" s="44">
+      <c r="W107" s="33"/>
+      <c r="X107" s="33"/>
+      <c r="Y107" s="33"/>
+      <c r="Z107" s="33"/>
+      <c r="AA107" s="36">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>23300220961.584946</v>
-      </c>
-      <c r="AB107" s="45" t="s">
+        <v>23370071556.711338</v>
+      </c>
+      <c r="AB107" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC107" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD107" s="47">
+      <c r="AD107" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="44">
+      <c r="W108" s="36">
         <f t="shared" ref="W108:Y108" si="12">W107+W106</f>
         <v>1230766181.2619905</v>
       </c>
-      <c r="X108" s="44">
+      <c r="X108" s="36">
         <f t="shared" si="12"/>
         <v>1294921898.6827736</v>
       </c>
-      <c r="Y108" s="44">
+      <c r="Y108" s="36">
         <f t="shared" si="12"/>
         <v>1362421838.7028117</v>
       </c>
-      <c r="Z108" s="44">
+      <c r="Z108" s="36">
         <f>Z107+Z106</f>
         <v>1433440324.4415867</v>
       </c>
-      <c r="AA108" s="44">
+      <c r="AA108" s="36">
         <f>AA107+AA106</f>
-        <v>24808381727.483685</v>
-      </c>
-      <c r="AB108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC108" s="48" t="s">
+        <v>24878232322.610077</v>
+      </c>
+      <c r="AB108" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC108" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD108" s="41">
+        <f>AD105</f>
+        <v>9.114719947668587E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="W109" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="49">
-        <f>AD105</f>
-        <v>9.1345498937322259E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="61" t="s">
+      <c r="X109" s="52"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="W110" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="62"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="50" t="s">
+      <c r="X110" s="43">
+        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
+        <v>20359845464.031845</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="W111" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="X110" s="51">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20298212602.824711</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="X111" s="51">
+      <c r="X111" s="43">
         <f>V40</f>
         <v>737877000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="X112" s="51">
+      <c r="W112" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="X112" s="43">
         <f>AD99</f>
         <v>1903176000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="50" t="s">
+      <c r="W113" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="X113" s="43">
+        <f>X110+X111-X112</f>
+        <v>19194546464.031845</v>
+      </c>
+    </row>
+    <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W114" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="X113" s="51">
-        <f>X110+X111-X112</f>
-        <v>19132913602.824711</v>
-      </c>
-    </row>
-    <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="X114" s="59">
+      <c r="X114" s="49">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="53" t="s">
+      <c r="W115" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="X115" s="45">
+        <f>X113/X114</f>
+        <v>446.35146844223505</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W116" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="54">
-        <f>X113/X114</f>
-        <v>444.91825311955728</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="52" t="s">
+      <c r="X116" s="68" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price")</f>
+        <v>520.95000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W117" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="55">
-        <v>519.92999999999995</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="56" t="s">
+      <c r="X117" s="47">
+        <f>X115/X116-1</f>
+        <v>-0.14319710443951439</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W118" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="57">
-        <f>X115/X116-1</f>
-        <v>-0.14427278072133298</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="X118" s="58" t="str">
+      <c r="X118" s="48" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4F6A7A-01AF-8E4B-BEE3-3F7EECD2F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CC8D7-8EDB-EC41-AA25-006E15CBD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,24 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -887,12 +894,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -947,12 +963,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,6 +1006,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,28 +1040,29 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2378,39 +2405,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>553.05999999999995</v>
-    <v>330.79910000000001</v>
-    <v>1.3168</v>
-    <v>-13.17</v>
-    <v>-2.4656999999999998E-2</v>
-    <v>0.08</v>
-    <v>1.5359999999999999E-4</v>
+    <v>556.6</v>
+    <v>360.58</v>
+    <v>1.3331999999999999</v>
+    <v>3.69</v>
+    <v>7.6649999999999999E-3</v>
     <v>USD</v>
-    <v>Ulta Beauty, Inc. (Ulta Beauty) is a beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. Ulta Beauty also offers a full-service salon in every store featuring hair, skin, makeup, and brow services. The Company operates approximately 1,343 stores across 50 states.</v>
+    <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1000 Remington Blvd Ste 120, BOLINGBROOK, IL, 60440-4708 US</v>
-    <v>532.41999999999996</v>
+    <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
+    <v>489.61</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45022.999443402347</v>
+    <v>45071.999909050784</v>
     <v>0</v>
-    <v>520.73</v>
-    <v>26149132135</v>
+    <v>481.7</v>
+    <v>24298971929</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>530</v>
-    <v>22.243400000000001</v>
-    <v>534.12</v>
-    <v>520.95000000000005</v>
-    <v>521.03</v>
-    <v>50195090</v>
+    <v>487.21</v>
+    <v>19.728300000000001</v>
+    <v>481.43</v>
+    <v>485.12</v>
+    <v>50088580</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>737791</v>
-    <v>738717</v>
+    <v>237</v>
+    <v>709839</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2442,8 +2466,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2464,7 +2486,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2481,7 +2502,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2492,16 +2513,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2567,19 +2585,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2624,9 +2636,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2634,9 +2643,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2998,10 +3004,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
+      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3244,19 +3250,19 @@
         <v>10208000000</v>
       </c>
       <c r="W3" s="28">
-        <v>10703000000</v>
+        <v>11051000000</v>
       </c>
       <c r="X3" s="28">
-        <v>11266000000</v>
+        <v>11707000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>12010000000</v>
+        <v>12407000000</v>
       </c>
       <c r="Z3" s="28">
-        <v>12452000000</v>
+        <v>12857000000</v>
       </c>
       <c r="AA3" s="28">
-        <v>13158000000</v>
+        <v>13509000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>109</v>
@@ -3358,23 +3364,23 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8491379310344751E-2</v>
+        <v>8.2582288401253923E-2</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>5.260207418480789E-2</v>
+        <v>5.9361143787892479E-2</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>6.6039410616012706E-2</v>
+        <v>5.9793286068164253E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>3.6802664446294653E-2</v>
+        <v>3.6269847666639876E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>5.6697719241888933E-2</v>
+        <v>5.0711674574162036E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -4386,17 +4392,17 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>-3.4529845148112706E-2</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="76">
         <f>AD101/V3</f>
-        <v>2.5616312828173982</v>
-      </c>
-      <c r="AD16" s="30">
+        <v>2.380385181132445</v>
+      </c>
+      <c r="AD16" s="76">
         <f>AD101/V28</f>
-        <v>21.047137602945249</v>
-      </c>
-      <c r="AE16" s="31">
+        <v>19.557964798198338</v>
+      </c>
+      <c r="AE16" s="77">
         <f>AD101/V106</f>
-        <v>22.353716896807885</v>
+        <v>20.772098155308349</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4537,6 +4543,12 @@
       <c r="AB18" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="AC18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -4605,9 +4617,32 @@
       <c r="V19" s="10">
         <v>1751060000</v>
       </c>
-      <c r="AB19" s="50">
+      <c r="W19" s="70">
+        <v>1927000000</v>
+      </c>
+      <c r="X19" s="70">
+        <v>1997000000</v>
+      </c>
+      <c r="Y19" s="70">
+        <v>2158000000</v>
+      </c>
+      <c r="Z19" s="70">
+        <v>2301000000</v>
+      </c>
+      <c r="AA19" s="70">
+        <v>2440000000</v>
+      </c>
+      <c r="AB19" s="48">
         <f>V40-V56-V61</f>
         <v>-1165299000</v>
+      </c>
+      <c r="AC19" s="76">
+        <f>AD101/W3</f>
+        <v>2.1988029978282508</v>
+      </c>
+      <c r="AD19" s="76">
+        <f>AD101/W28</f>
+        <v>19.193500733807266</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,15 +4726,30 @@
         <f t="shared" si="3"/>
         <v>1.9871158161958395</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="68">
         <f t="shared" si="3"/>
         <v>0.12058803578079469</v>
       </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
+      <c r="W20" s="71">
+        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
+        <v>0.10047628293719235</v>
+      </c>
+      <c r="X20" s="71">
+        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
+        <v>3.6325895173845435E-2</v>
+      </c>
+      <c r="Y20" s="71">
+        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
+        <v>8.0620931397095585E-2</v>
+      </c>
+      <c r="Z20" s="71">
+        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
+        <v>6.6265060240963791E-2</v>
+      </c>
+      <c r="AA20" s="71">
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <v>6.0408518035636627E-2</v>
+      </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
@@ -4778,9 +4828,29 @@
       <c r="U21" s="2">
         <v>0.18110000000000001</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="69">
         <f>V19/V3</f>
         <v>0.17153800940438871</v>
+      </c>
+      <c r="W21" s="72">
+        <f>W19/W3</f>
+        <v>0.17437335987693423</v>
+      </c>
+      <c r="X21" s="72">
+        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
+        <v>0.17058170325446315</v>
+      </c>
+      <c r="Y21" s="72">
+        <f t="shared" si="9"/>
+        <v>0.1739340694769082</v>
+      </c>
+      <c r="Z21" s="72">
+        <f t="shared" si="9"/>
+        <v>0.17896865520728009</v>
+      </c>
+      <c r="AA21" s="72">
+        <f t="shared" si="9"/>
+        <v>0.18062032718928123</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4847,7 +4917,7 @@
       <c r="U22" s="10">
         <v>1297492000</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="67">
         <v>1638610000</v>
       </c>
     </row>
@@ -5259,6 +5329,21 @@
       </c>
       <c r="V28" s="11">
         <v>1242408000</v>
+      </c>
+      <c r="W28" s="73">
+        <v>1266000000</v>
+      </c>
+      <c r="X28" s="73">
+        <v>1318000000</v>
+      </c>
+      <c r="Y28" s="73">
+        <v>1411000000</v>
+      </c>
+      <c r="Z28" s="73">
+        <v>1456000000</v>
+      </c>
+      <c r="AA28" s="73">
+        <v>1540000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5279,78 +5364,93 @@
         <v>0.68805496828752633</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
         <v>0.41167261569290492</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.12385219358559207</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.6445628577067559E-3</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.55754313756529994</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.80480739912592747</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.69314374208081087</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.43475187919909541</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17560229268207861</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.26761778465755315</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.24451358235946108</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28046798830029251</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.35502245216712214</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18609271046081477</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.1954069415192778E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.7509225222928132</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.6066027810162939</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.26025702017676355</v>
       </c>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
+      <c r="W29" s="16">
+        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
+        <v>1.8988931172368551E-2</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
+        <v>4.1074249605055346E-2</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
+        <v>7.0561456752655571E-2</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
+        <v>3.1892274982282087E-2</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
+        <v>5.7692307692307709E-2</v>
+      </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -5433,6 +5533,26 @@
         <f>V28/V3</f>
         <v>0.12170924764890283</v>
       </c>
+      <c r="W30" s="74">
+        <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
+        <v>0.11455976834675595</v>
+      </c>
+      <c r="X30" s="74">
+        <f t="shared" si="16"/>
+        <v>0.11258221576834372</v>
+      </c>
+      <c r="Y30" s="74">
+        <f t="shared" si="16"/>
+        <v>0.11372612235028613</v>
+      </c>
+      <c r="Z30" s="74">
+        <f t="shared" si="16"/>
+        <v>0.11324570273003033</v>
+      </c>
+      <c r="AA30" s="74">
+        <f t="shared" si="16"/>
+        <v>0.1139980753571693</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -5500,6 +5620,21 @@
       </c>
       <c r="V31" s="12">
         <v>24.1</v>
+      </c>
+      <c r="W31" s="75">
+        <v>25.27</v>
+      </c>
+      <c r="X31" s="75">
+        <v>26.32</v>
+      </c>
+      <c r="Y31" s="75">
+        <v>28.17</v>
+      </c>
+      <c r="Z31" s="75">
+        <v>29.07</v>
+      </c>
+      <c r="AA31" s="75">
+        <v>30.74</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5716,79 +5851,79 @@
         <v>-0.41149604975244208</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
         <v>0.36448348348348347</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>14.153138815152182</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.577741749148896E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.7555769637838922E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.10646801643743081</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.578832228195431E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.4623630501207016E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.338337031719097E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6768244544794267E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0093794645630162E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.947518654690433E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.8158419823359266E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.2154803578374172E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.3937725732287473E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.8947156111335217E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.4495937255944568E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6624214783581446E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.0358216344283744E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.2223701245418572E-2</v>
       </c>
       <c r="W35" s="22"/>
@@ -8805,87 +8940,87 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:U80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:U80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.5744381116050768E-3</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.865179170915895E-3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.6675203699655909E-3</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.5337913274265535E-3</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.0240801060778577E-3</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.9923469607458778E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.6039188996994792E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.973888641416309E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.9837379450215326E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.1463123667475231E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.9656880735310868E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.3853433085502863E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.4836168286721302E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.475565726775075E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" ref="V80" si="7">V79/V3</f>
+        <f t="shared" ref="V80" si="19">V79/V3</f>
         <v>4.2166927899686523E-3</v>
       </c>
       <c r="W80" s="15"/>
@@ -9106,10 +9241,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="53" t="s">
+      <c r="AC83" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AD83" s="54"/>
+      <c r="AD83" s="62"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9176,10 +9311,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="55" t="s">
+      <c r="AC84" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AD84" s="56"/>
+      <c r="AD84" s="64"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9246,10 +9381,10 @@
         <v>55936000</v>
       </c>
       <c r="V85" s="1"/>
-      <c r="AC85" s="57" t="s">
+      <c r="AC85" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="AD85" s="58">
+      <c r="AD85" s="50">
         <f>V17</f>
         <v>4943000</v>
       </c>
@@ -9319,10 +9454,10 @@
         <v>281587000</v>
       </c>
       <c r="V86" s="1"/>
-      <c r="AC86" s="57" t="s">
+      <c r="AC86" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="AD86" s="58">
+      <c r="AD86" s="50">
         <f>V56</f>
         <v>283293000</v>
       </c>
@@ -9394,10 +9529,10 @@
       <c r="V87" s="10">
         <v>1481915000</v>
       </c>
-      <c r="AC87" s="57" t="s">
+      <c r="AC87" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="AD87" s="58">
+      <c r="AD87" s="50">
         <f>V61</f>
         <v>1619883000</v>
       </c>
@@ -9469,10 +9604,10 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="59" t="s">
+      <c r="AC88" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AD88" s="60">
+      <c r="AD88" s="52">
         <f>AD85/(AD86+AD87)</f>
         <v>2.5972374599091204E-3</v>
       </c>
@@ -9482,93 +9617,93 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:U89" si="8">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:U89" si="20">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.1850796528947034E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.2545261437692113E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.11167790944601767</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.1022112283639086</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.5697264655442433E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6.6753136775366054E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.2424022507095398E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.4935250709828061E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.4635020274675135E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.6840063565734112E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.6238062279504484E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.6986044764113901E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.4893967310085158E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.7553715673743398E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9950088571409039E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" ref="V89" si="9">(-1*V88)/V3</f>
+        <f t="shared" ref="V89" si="21">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
-      <c r="AC89" s="57" t="s">
+      <c r="AC89" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="AD89" s="58">
+      <c r="AD89" s="50">
         <f>V27</f>
         <v>401163000</v>
       </c>
@@ -9655,10 +9790,10 @@
       <c r="V90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC90" s="57" t="s">
+      <c r="AC90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="58">
+      <c r="AD90" s="50">
         <f>V25</f>
         <v>1640273000</v>
       </c>
@@ -9730,10 +9865,10 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="59" t="s">
+      <c r="AC91" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AD91" s="60">
+      <c r="AD91" s="52">
         <f>AD89/AD90</f>
         <v>0.24457087326317023</v>
       </c>
@@ -9805,10 +9940,10 @@
       <c r="V92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC92" s="61" t="s">
+      <c r="AC92" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="AD92" s="62">
+      <c r="AD92" s="54">
         <f>AD88*(1-AD91)</f>
         <v>1.9620288262673291E-3</v>
       </c>
@@ -9881,10 +10016,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="63" t="s">
+      <c r="AC93" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AD93" s="64"/>
+      <c r="AD93" s="66"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9953,10 +10088,10 @@
       <c r="V94" s="10">
         <v>-314584000</v>
       </c>
-      <c r="AC94" s="57" t="s">
+      <c r="AC94" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="AD94" s="65">
+      <c r="AD94" s="55">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10027,12 +10162,12 @@
       <c r="V95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC95" s="57" t="s">
+      <c r="AC95" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AD95" s="66" cm="1">
+      <c r="AD95" s="56" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3168</v>
+        <v>1.3331999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10102,10 +10237,10 @@
       <c r="V96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC96" s="57" t="s">
+      <c r="AC96" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="AD96" s="65">
+      <c r="AD96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10176,12 +10311,12 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="61" t="s">
+      <c r="AC97" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="AD97" s="62">
+      <c r="AD97" s="54">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.7638240000000015E-2</v>
+        <v>9.8344260000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10251,10 +10386,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="63" t="s">
+      <c r="AC98" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="AD98" s="64"/>
+      <c r="AD98" s="66"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10323,10 +10458,10 @@
       <c r="V99" s="1">
         <v>46011000</v>
       </c>
-      <c r="AC99" s="57" t="s">
+      <c r="AC99" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="AD99" s="58">
+      <c r="AD99" s="50">
         <f>AD86+AD87</f>
         <v>1903176000</v>
       </c>
@@ -10398,12 +10533,12 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="59" t="s">
+      <c r="AC100" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AD100" s="60">
+      <c r="AD100" s="52">
         <f>AD99/AD103</f>
-        <v>6.7843829136664369E-2</v>
+        <v>7.2634350632514513E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10473,12 +10608,12 @@
       <c r="V101" s="1">
         <v>-56000</v>
       </c>
-      <c r="AC101" s="57" t="s">
+      <c r="AC101" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="AD101" s="43" cm="1">
+      <c r="AD101" s="41" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>26149132135</v>
+        <v>24298971929</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10548,12 +10683,12 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="59" t="s">
+      <c r="AC102" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="AD102" s="60">
+      <c r="AD102" s="52">
         <f>AD101/AD103</f>
-        <v>0.93215617086333558</v>
+        <v>0.92736564936748545</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10623,12 +10758,12 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="61" t="s">
+      <c r="AC103" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="AD103" s="67">
+      <c r="AD103" s="57">
         <f>AD99+AD101</f>
-        <v>28052308135</v>
+        <v>26202147929</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10698,10 +10833,10 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="55" t="s">
+      <c r="AC104" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AD104" s="56"/>
+      <c r="AD104" s="64"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10729,77 +10864,87 @@
         <v>7.2017609312042978</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="10">(H106/G106)-1</f>
+        <f t="shared" ref="H105:V105" si="22">(H106/G106)-1</f>
         <v>-0.35116448326055316</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-3.9366797532249018</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-0.24153473004717252</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.16144180893387716</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-0.45341513913128317</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.0169565476072426</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.45057570722018458</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-0.48004067107269954</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.40174951438591</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.2978255371007672</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.88018083460307328</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.26075853544768801</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-0.17971769858699804</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.34714171383272907</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.3186991448328107</v>
       </c>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
+      <c r="W105" s="78">
+        <v>1023000000</v>
+      </c>
+      <c r="X105" s="78">
+        <v>1101000000</v>
+      </c>
+      <c r="Y105" s="78">
+        <v>1203000000</v>
+      </c>
+      <c r="Z105" s="78">
+        <v>1333000000</v>
+      </c>
+      <c r="AA105" s="78">
+        <v>1406000000</v>
+      </c>
       <c r="AB105" s="15"/>
       <c r="AC105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.114719947668587E-2</v>
+        <v>9.1343599226183028E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -10891,35 +11036,35 @@
         <f>V87+V93</f>
         <v>1169789000</v>
       </c>
-      <c r="W106" s="32">
+      <c r="W106" s="30">
         <f>V106*(1+$AD$106)</f>
-        <v>1230766181.2619905</v>
-      </c>
-      <c r="X106" s="32">
-        <f t="shared" ref="X106:AA106" si="11">W106*(1+$AD$106)</f>
-        <v>1294921898.6827736</v>
-      </c>
-      <c r="Y106" s="32">
-        <f t="shared" si="11"/>
-        <v>1362421838.7028117</v>
-      </c>
-      <c r="Z106" s="32">
-        <f t="shared" si="11"/>
-        <v>1433440324.4415867</v>
-      </c>
-      <c r="AA106" s="32">
-        <f t="shared" si="11"/>
-        <v>1508160765.8987393</v>
-      </c>
-      <c r="AB106" s="33" t="s">
+        <v>1237336884.3668094</v>
+      </c>
+      <c r="X106" s="30">
+        <f t="shared" ref="X106:AA106" si="23">W106*(1+$AD$106)</f>
+        <v>1308785229.9983697</v>
+      </c>
+      <c r="Y106" s="30">
+        <f t="shared" si="23"/>
+        <v>1384359263.7573791</v>
+      </c>
+      <c r="Z106" s="30">
+        <f t="shared" si="23"/>
+        <v>1464297217.9272377</v>
+      </c>
+      <c r="AA106" s="30">
+        <f t="shared" si="23"/>
+        <v>1548851081.1924844</v>
+      </c>
+      <c r="AB106" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AC106" s="34" t="s">
+      <c r="AC106" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AD106" s="35">
+      <c r="AD106" s="33">
         <f>(SUM(W4:AA4)/5)</f>
-        <v>5.2126649559869787E-2</v>
+        <v>5.7743648099622513E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10944,139 +11089,139 @@
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
-      <c r="W107" s="33"/>
-      <c r="X107" s="33"/>
-      <c r="Y107" s="33"/>
-      <c r="Z107" s="33"/>
-      <c r="AA107" s="36">
-        <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>23370071556.711338</v>
-      </c>
-      <c r="AB107" s="37" t="s">
+      <c r="W107" s="31"/>
+      <c r="X107" s="31"/>
+      <c r="Y107" s="31"/>
+      <c r="Z107" s="31"/>
+      <c r="AA107" s="79">
+        <f>AA105*(1+AD107)/(AD108-AD107)</f>
+        <v>21722517572.294128</v>
+      </c>
+      <c r="AB107" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AC107" s="38" t="s">
+      <c r="AC107" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="39">
+      <c r="AD107" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="36">
-        <f t="shared" ref="W108:Y108" si="12">W107+W106</f>
-        <v>1230766181.2619905</v>
-      </c>
-      <c r="X108" s="36">
-        <f t="shared" si="12"/>
-        <v>1294921898.6827736</v>
-      </c>
-      <c r="Y108" s="36">
-        <f t="shared" si="12"/>
-        <v>1362421838.7028117</v>
-      </c>
-      <c r="Z108" s="36">
+      <c r="W108" s="34">
+        <f t="shared" ref="W108:Y108" si="24">W107+W106</f>
+        <v>1237336884.3668094</v>
+      </c>
+      <c r="X108" s="34">
+        <f t="shared" si="24"/>
+        <v>1308785229.9983697</v>
+      </c>
+      <c r="Y108" s="34">
+        <f t="shared" si="24"/>
+        <v>1384359263.7573791</v>
+      </c>
+      <c r="Z108" s="34">
         <f>Z107+Z106</f>
-        <v>1433440324.4415867</v>
-      </c>
-      <c r="AA108" s="36">
-        <f>AA107+AA106</f>
-        <v>24878232322.610077</v>
-      </c>
-      <c r="AB108" s="37" t="s">
+        <v>1464297217.9272377</v>
+      </c>
+      <c r="AA108" s="79">
+        <f>AA107+AA105</f>
+        <v>23128517572.294128</v>
+      </c>
+      <c r="AB108" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AC108" s="40" t="s">
+      <c r="AC108" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="AD108" s="41">
+      <c r="AD108" s="39">
         <f>AD105</f>
-        <v>9.114719947668587E-2</v>
+        <v>9.1343599226183028E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="51" t="s">
+      <c r="W109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="X109" s="52"/>
+      <c r="X109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="42" t="s">
+      <c r="W110" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="X110" s="43">
+      <c r="X110" s="41">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20359845464.031845</v>
+        <v>19269568248.140507</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="42" t="s">
+      <c r="W111" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="X111" s="43">
+      <c r="X111" s="41">
         <f>V40</f>
         <v>737877000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="42" t="s">
+      <c r="W112" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="X112" s="43">
+      <c r="X112" s="41">
         <f>AD99</f>
         <v>1903176000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="42" t="s">
+      <c r="W113" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="X113" s="43">
+      <c r="X113" s="41">
         <f>X110+X111-X112</f>
-        <v>19194546464.031845</v>
+        <v>18104269248.140507</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="42" t="s">
+      <c r="W114" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="X114" s="49">
+      <c r="X114" s="47">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="44" t="s">
+      <c r="W115" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="X115" s="45">
+      <c r="X115" s="43">
         <f>X113/X114</f>
-        <v>446.35146844223505</v>
+        <v>420.99807771564895</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="42" t="s">
+      <c r="W116" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="X116" s="68" cm="1">
+      <c r="X116" s="58" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>520.95000000000005</v>
+        <v>485.12</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="46" t="s">
+      <c r="W117" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="X117" s="47">
+      <c r="X117" s="45">
         <f>X115/X116-1</f>
-        <v>-0.14319710443951439</v>
+        <v>-0.13217744534208253</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="46" t="s">
+      <c r="W118" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="X118" s="48" t="str">
+      <c r="X118" s="46" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CC8D7-8EDB-EC41-AA25-006E15CBD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BE542-DCE4-B244-B341-DA37527B9D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1022,6 +1022,22 @@
     <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,23 +1062,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,9 +2406,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3331999999999999</v>
-    <v>3.69</v>
-    <v>7.6649999999999999E-3</v>
+    <v>1.3187</v>
+    <v>-8.07</v>
+    <v>-1.9202E-2</v>
+    <v>-0.05</v>
+    <v>-1.2130000000000001E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2417,24 +2418,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>489.61</v>
+    <v>418</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45071.999909050784</v>
+    <v>45076.999782696097</v>
     <v>0</v>
-    <v>481.7</v>
-    <v>24298971929</v>
+    <v>403.15</v>
+    <v>20528215398</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>487.21</v>
-    <v>19.728300000000001</v>
-    <v>481.43</v>
-    <v>485.12</v>
-    <v>50088580</v>
+    <v>417.65</v>
+    <v>17.093499999999999</v>
+    <v>420.27</v>
+    <v>412.2</v>
+    <v>412.15</v>
+    <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>237</v>
-    <v>709839</v>
+    <v>3395592</v>
+    <v>1003973</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2466,6 +2468,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2486,6 +2490,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2502,7 +2507,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2513,13 +2518,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2585,13 +2593,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2636,6 +2650,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2643,6 +2660,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3007,7 +3027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="T82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
+      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4392,17 +4412,17 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>-3.4529845148112706E-2</v>
       </c>
-      <c r="AC16" s="76">
+      <c r="AC16" s="66">
         <f>AD101/V3</f>
-        <v>2.380385181132445</v>
-      </c>
-      <c r="AD16" s="76">
+        <v>2.0109928877351098</v>
+      </c>
+      <c r="AD16" s="66">
         <f>AD101/V28</f>
-        <v>19.557964798198338</v>
-      </c>
-      <c r="AE16" s="77">
+        <v>16.522925961519888</v>
+      </c>
+      <c r="AE16" s="67">
         <f>AD101/V106</f>
-        <v>20.772098155308349</v>
+        <v>17.548648002332044</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4617,32 +4637,32 @@
       <c r="V19" s="10">
         <v>1751060000</v>
       </c>
-      <c r="W19" s="70">
+      <c r="W19" s="61">
         <v>1927000000</v>
       </c>
-      <c r="X19" s="70">
+      <c r="X19" s="61">
         <v>1997000000</v>
       </c>
-      <c r="Y19" s="70">
+      <c r="Y19" s="61">
         <v>2158000000</v>
       </c>
-      <c r="Z19" s="70">
+      <c r="Z19" s="61">
         <v>2301000000</v>
       </c>
-      <c r="AA19" s="70">
+      <c r="AA19" s="61">
         <v>2440000000</v>
       </c>
       <c r="AB19" s="48">
         <f>V40-V56-V61</f>
         <v>-1165299000</v>
       </c>
-      <c r="AC19" s="76">
+      <c r="AC19" s="66">
         <f>AD101/W3</f>
-        <v>2.1988029978282508</v>
-      </c>
-      <c r="AD19" s="76">
+        <v>1.8575889419961995</v>
+      </c>
+      <c r="AD19" s="68">
         <f>AD101/W28</f>
-        <v>19.193500733807266</v>
+        <v>16.215020061611373</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4726,27 +4746,27 @@
         <f t="shared" si="3"/>
         <v>1.9871158161958395</v>
       </c>
-      <c r="V20" s="68">
+      <c r="V20" s="15">
         <f t="shared" si="3"/>
         <v>0.12058803578079469</v>
       </c>
-      <c r="W20" s="71">
+      <c r="W20" s="16">
         <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
         <v>0.10047628293719235</v>
       </c>
-      <c r="X20" s="71">
+      <c r="X20" s="16">
         <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
         <v>3.6325895173845435E-2</v>
       </c>
-      <c r="Y20" s="71">
+      <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
         <v>8.0620931397095585E-2</v>
       </c>
-      <c r="Z20" s="71">
+      <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
         <v>6.6265060240963791E-2</v>
       </c>
-      <c r="AA20" s="71">
+      <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
         <v>6.0408518035636627E-2</v>
       </c>
@@ -4828,27 +4848,27 @@
       <c r="U21" s="2">
         <v>0.18110000000000001</v>
       </c>
-      <c r="V21" s="69">
+      <c r="V21" s="60">
         <f>V19/V3</f>
         <v>0.17153800940438871</v>
       </c>
-      <c r="W21" s="72">
+      <c r="W21" s="62">
         <f>W19/W3</f>
         <v>0.17437335987693423</v>
       </c>
-      <c r="X21" s="72">
+      <c r="X21" s="62">
         <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
         <v>0.17058170325446315</v>
       </c>
-      <c r="Y21" s="72">
+      <c r="Y21" s="62">
         <f t="shared" si="9"/>
         <v>0.1739340694769082</v>
       </c>
-      <c r="Z21" s="72">
+      <c r="Z21" s="62">
         <f t="shared" si="9"/>
         <v>0.17896865520728009</v>
       </c>
-      <c r="AA21" s="72">
+      <c r="AA21" s="62">
         <f t="shared" si="9"/>
         <v>0.18062032718928123</v>
       </c>
@@ -4917,7 +4937,7 @@
       <c r="U22" s="10">
         <v>1297492000</v>
       </c>
-      <c r="V22" s="67">
+      <c r="V22" s="59">
         <v>1638610000</v>
       </c>
     </row>
@@ -5330,19 +5350,19 @@
       <c r="V28" s="11">
         <v>1242408000</v>
       </c>
-      <c r="W28" s="73">
+      <c r="W28" s="63">
         <v>1266000000</v>
       </c>
-      <c r="X28" s="73">
+      <c r="X28" s="63">
         <v>1318000000</v>
       </c>
-      <c r="Y28" s="73">
+      <c r="Y28" s="63">
         <v>1411000000</v>
       </c>
-      <c r="Z28" s="73">
+      <c r="Z28" s="63">
         <v>1456000000</v>
       </c>
-      <c r="AA28" s="73">
+      <c r="AA28" s="63">
         <v>1540000000</v>
       </c>
     </row>
@@ -5533,23 +5553,23 @@
         <f>V28/V3</f>
         <v>0.12170924764890283</v>
       </c>
-      <c r="W30" s="74">
+      <c r="W30" s="64">
         <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
         <v>0.11455976834675595</v>
       </c>
-      <c r="X30" s="74">
+      <c r="X30" s="64">
         <f t="shared" si="16"/>
         <v>0.11258221576834372</v>
       </c>
-      <c r="Y30" s="74">
+      <c r="Y30" s="64">
         <f t="shared" si="16"/>
         <v>0.11372612235028613</v>
       </c>
-      <c r="Z30" s="74">
+      <c r="Z30" s="64">
         <f t="shared" si="16"/>
         <v>0.11324570273003033</v>
       </c>
-      <c r="AA30" s="74">
+      <c r="AA30" s="64">
         <f t="shared" si="16"/>
         <v>0.1139980753571693</v>
       </c>
@@ -5621,19 +5641,19 @@
       <c r="V31" s="12">
         <v>24.1</v>
       </c>
-      <c r="W31" s="75">
+      <c r="W31" s="65">
         <v>25.27</v>
       </c>
-      <c r="X31" s="75">
+      <c r="X31" s="65">
         <v>26.32</v>
       </c>
-      <c r="Y31" s="75">
+      <c r="Y31" s="65">
         <v>28.17</v>
       </c>
-      <c r="Z31" s="75">
+      <c r="Z31" s="65">
         <v>29.07</v>
       </c>
-      <c r="AA31" s="75">
+      <c r="AA31" s="65">
         <v>30.74</v>
       </c>
     </row>
@@ -9241,10 +9261,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="61" t="s">
+      <c r="AC83" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="AD83" s="62"/>
+      <c r="AD83" s="72"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9311,10 +9331,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="63" t="s">
+      <c r="AC84" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="AD84" s="64"/>
+      <c r="AD84" s="74"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10016,10 +10036,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="65" t="s">
+      <c r="AC93" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AD93" s="66"/>
+      <c r="AD93" s="76"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10167,7 +10187,7 @@
       </c>
       <c r="AD95" s="56" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3331999999999999</v>
+        <v>1.3187</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10316,7 +10336,7 @@
       </c>
       <c r="AD97" s="54">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.8344260000000003E-2</v>
+        <v>9.7720035000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10386,10 +10406,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="65" t="s">
+      <c r="AC98" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="AD98" s="66"/>
+      <c r="AD98" s="76"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10538,7 +10558,7 @@
       </c>
       <c r="AD100" s="52">
         <f>AD99/AD103</f>
-        <v>7.2634350632514513E-2</v>
+        <v>8.4844313321093781E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10613,7 +10633,7 @@
       </c>
       <c r="AD101" s="41" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>24298971929</v>
+        <v>20528215398</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10688,7 +10708,7 @@
       </c>
       <c r="AD102" s="52">
         <f>AD101/AD103</f>
-        <v>0.92736564936748545</v>
+        <v>0.91515568667890623</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10763,7 +10783,7 @@
       </c>
       <c r="AD103" s="57">
         <f>AD99+AD101</f>
-        <v>26202147929</v>
+        <v>22431391398</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10833,10 +10853,10 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="63" t="s">
+      <c r="AC104" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AD104" s="64"/>
+      <c r="AD104" s="74"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10923,28 +10943,18 @@
         <f t="shared" si="22"/>
         <v>0.3186991448328107</v>
       </c>
-      <c r="W105" s="78">
-        <v>1023000000</v>
-      </c>
-      <c r="X105" s="78">
-        <v>1101000000</v>
-      </c>
-      <c r="Y105" s="78">
-        <v>1203000000</v>
-      </c>
-      <c r="Z105" s="78">
-        <v>1333000000</v>
-      </c>
-      <c r="AA105" s="78">
-        <v>1406000000</v>
-      </c>
+      <c r="W105" s="28"/>
+      <c r="X105" s="28"/>
+      <c r="Y105" s="28"/>
+      <c r="Z105" s="28"/>
+      <c r="AA105" s="28"/>
       <c r="AB105" s="15"/>
       <c r="AC105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1343599226183028E-2</v>
+        <v>8.9595512721192608E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11093,9 +11103,9 @@
       <c r="X107" s="31"/>
       <c r="Y107" s="31"/>
       <c r="Z107" s="31"/>
-      <c r="AA107" s="79">
-        <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>21722517572.294128</v>
+      <c r="AA107" s="34">
+        <f>AA106*(1+AD107)/(AD108-AD107)</f>
+        <v>24577130691.331181</v>
       </c>
       <c r="AB107" s="35" t="s">
         <v>147</v>
@@ -11124,9 +11134,9 @@
         <f>Z107+Z106</f>
         <v>1464297217.9272377</v>
       </c>
-      <c r="AA108" s="79">
-        <f>AA107+AA105</f>
-        <v>23128517572.294128</v>
+      <c r="AA108" s="34">
+        <f>AA107+AA106</f>
+        <v>26125981772.523666</v>
       </c>
       <c r="AB108" s="35" t="s">
         <v>143</v>
@@ -11136,14 +11146,14 @@
       </c>
       <c r="AD108" s="39">
         <f>AD105</f>
-        <v>9.1343599226183028E-2</v>
+        <v>8.9595512721192608E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="59" t="s">
+      <c r="W109" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="X109" s="60"/>
+      <c r="X109" s="70"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="W110" s="40" t="s">
@@ -11151,7 +11161,7 @@
       </c>
       <c r="X110" s="41">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>19269568248.140507</v>
+        <v>21358682120.840248</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11178,7 +11188,7 @@
       </c>
       <c r="X113" s="41">
         <f>X110+X111-X112</f>
-        <v>18104269248.140507</v>
+        <v>20193383120.840248</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11196,7 +11206,7 @@
       </c>
       <c r="X115" s="43">
         <f>X113/X114</f>
-        <v>420.99807771564895</v>
+        <v>469.57849333369558</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11205,7 +11215,7 @@
       </c>
       <c r="X116" s="58" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>485.12</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11214,7 +11224,7 @@
       </c>
       <c r="X117" s="45">
         <f>X115/X116-1</f>
-        <v>-0.13217744534208253</v>
+        <v>0.13920061458926636</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11223,7 +11233,7 @@
       </c>
       <c r="X118" s="46" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BE542-DCE4-B244-B341-DA37527B9D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0551A5-E868-F14C-9461-021BDCE36D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,11 +51,39 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
         </ext>
       </extLst>
     </bk>
@@ -61,16 +93,28 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +386,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -507,9 +548,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -556,18 +594,40 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -908,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -950,10 +1010,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,6 +1092,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,11 +1482,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1460,7 +1526,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$V$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1525,7 +1591,7 @@
                   <c:v>887078000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1169789000</c:v>
+                  <c:v>1170000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,6 +2350,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2387,7 +2511,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24war&amp;q=XNAS%3aULTA&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2406,11 +2530,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3187</v>
-    <v>-8.07</v>
-    <v>-1.9202E-2</v>
-    <v>-0.05</v>
-    <v>-1.2130000000000001E-4</v>
+    <v>1.3318000000000001</v>
+    <v>-3.23</v>
+    <v>-7.1599999999999997E-3</v>
+    <v>-0.72</v>
+    <v>-1.6070000000000001E-3</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2418,35 +2542,54 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>418</v>
+    <v>454.62</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45076.999782696097</v>
+    <v>45093.999662314061</v>
     <v>0</v>
-    <v>403.15</v>
-    <v>20528215398</v>
+    <v>442.4</v>
+    <v>22306630176</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>417.65</v>
-    <v>17.093499999999999</v>
-    <v>420.27</v>
-    <v>412.2</v>
-    <v>412.15</v>
+    <v>454.62</v>
+    <v>18.349</v>
+    <v>451.14</v>
+    <v>447.91</v>
+    <v>447.19</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>3395592</v>
-    <v>1003973</v>
+    <v>1865692</v>
+    <v>1423289</v>
     <v>2016</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
+  <rv s="3">
+    <v>12</v>
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>12</v>
+    <v>Beta</v>
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>12</v>
+    <v>Market cap</v>
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>12</v>
+    <v>Price</v>
+    <v>0</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2500,6 +2643,15 @@
   </s>
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="field" t="s"/>
+    <k n="subType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -3021,13 +3173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
+      <selection pane="bottomRight" activeCell="AJ88" sqref="AJ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3190,7 @@
     <col min="27" max="31" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -3105,94 +3257,94 @@
       <c r="V1" s="8">
         <v>2023</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="25">
         <v>2024</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="25">
         <v>2025</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="25">
         <v>2026</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="25">
         <v>2027</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="25">
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -3202,7 +3354,7 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:42" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3269,37 +3421,37 @@
       <c r="V3" s="1">
         <v>10208000000</v>
       </c>
-      <c r="W3" s="28">
-        <v>11051000000</v>
-      </c>
-      <c r="X3" s="28">
-        <v>11707000000</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>12407000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>12857000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>13509000000</v>
+      <c r="W3" s="26">
+        <v>11092000000</v>
+      </c>
+      <c r="X3" s="26">
+        <v>11653000000</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>12390000000</v>
+      </c>
+      <c r="Z3" s="26">
+        <v>12944000000</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>13613000000</v>
       </c>
       <c r="AB3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AE3" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3384,23 +3536,23 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>8.2582288401253923E-2</v>
+        <v>8.6598746081504752E-2</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9361143787892479E-2</v>
+        <v>5.0576992426974332E-2</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9793286068164253E-2</v>
+        <v>6.3245516176092087E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>3.6269847666639876E-2</v>
+        <v>4.4713478611783763E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>5.0711674574162036E-2</v>
+        <v>5.1684177997527891E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3415,8 +3567,8 @@
         <v>1.3719790929667479</v>
       </c>
       <c r="AE4" s="17">
-        <f>(V105+U105+T105)/3</f>
-        <v>0.16204105335951391</v>
+        <f>(V106+U106+T106)/3</f>
+        <v>0.16212033988598995</v>
       </c>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
@@ -3426,11 +3578,8 @@
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-    </row>
-    <row r="5" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3590,7 @@
         <v>312203000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>404794000</v>
@@ -3498,7 +3647,7 @@
         <v>6164070000</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3658,7 @@
         <v>111660000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>174281000</v>
@@ -3566,19 +3715,19 @@
         <v>4044510000</v>
       </c>
       <c r="AB6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AE6" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3589,7 +3738,7 @@
         <v>0.26340000000000002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.30099999999999999</v>
@@ -3659,11 +3808,11 @@
         <v>0.12170924764890283</v>
       </c>
       <c r="AE7" s="20">
-        <f>V106/V3</f>
-        <v>0.11459531739811912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+        <f>V107/V3</f>
+        <v>0.11461598746081504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3731,9 +3880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3824,16 +3973,16 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AB9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
@@ -3843,72 +3992,72 @@
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
     </row>
-    <row r="10" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1">
         <v>1583017000</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="17">
         <f>V9</f>
@@ -3927,75 +4076,75 @@
         <v>3.05766065830721E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +4155,7 @@
         <v>98446000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>144857000</v>
@@ -4063,21 +4212,21 @@
         <v>2395299000</v>
       </c>
       <c r="AB12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AE12" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4191,7 +4340,7 @@
       <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
     </row>
-    <row r="14" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -4202,25 +4351,25 @@
         <v>2318000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>9987000</v>
@@ -4259,7 +4408,7 @@
         <v>10601000</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4270,7 +4419,7 @@
         <v>100764000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>144857000</v>
@@ -4328,19 +4477,19 @@
         <v>2405900000</v>
       </c>
       <c r="AB15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AE15" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4500,7 @@
         <v>412967000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>549651000</v>
@@ -4408,44 +4557,44 @@
         <f>V15+V5</f>
         <v>8569970000</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AB16" s="27">
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>-3.4529845148112706E-2</v>
       </c>
-      <c r="AC16" s="66">
+      <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.0109928877351098</v>
-      </c>
-      <c r="AD16" s="66">
+        <v>2.1852106363636365</v>
+      </c>
+      <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>16.522925961519888</v>
-      </c>
-      <c r="AE16" s="67">
-        <f>AD101/V106</f>
-        <v>17.548648002332044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+        <v>17.954351691231867</v>
+      </c>
+      <c r="AE16" s="65">
+        <f>AD101/V107</f>
+        <v>19.065495876923077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1">
         <v>3943000</v>
@@ -4493,7 +4642,7 @@
         <v>4943000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4504,7 +4653,7 @@
         <v>15411000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>22285000</v>
@@ -4561,16 +4710,19 @@
         <v>112450000</v>
       </c>
       <c r="AB18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD18" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AC18" s="19" t="s">
+      <c r="AE18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AD18" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4637,37 +4789,41 @@
       <c r="V19" s="10">
         <v>1751060000</v>
       </c>
-      <c r="W19" s="61">
+      <c r="W19" s="59">
         <v>1927000000</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="59">
         <v>1997000000</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="59">
         <v>2158000000</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="59">
         <v>2301000000</v>
       </c>
-      <c r="AA19" s="61">
+      <c r="AA19" s="59">
         <v>2440000000</v>
       </c>
-      <c r="AB19" s="48">
+      <c r="AB19" s="46">
         <f>V40-V56-V61</f>
         <v>-1165299000</v>
       </c>
-      <c r="AC19" s="66">
+      <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>1.8575889419961995</v>
-      </c>
-      <c r="AD19" s="68">
+        <v>2.0110557316985216</v>
+      </c>
+      <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>16.215020061611373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17.619771071090046</v>
+      </c>
+      <c r="AE19" s="65">
+        <f>AD101/W106</f>
+        <v>22.722451029846184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4781,10 +4937,8 @@
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-    </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4848,32 +5002,38 @@
       <c r="U21" s="2">
         <v>0.18110000000000001</v>
       </c>
-      <c r="V21" s="60">
+      <c r="V21" s="58">
         <f>V19/V3</f>
         <v>0.17153800940438871</v>
       </c>
-      <c r="W21" s="62">
+      <c r="W21" s="60">
         <f>W19/W3</f>
-        <v>0.17437335987693423</v>
-      </c>
-      <c r="X21" s="62">
+        <v>0.17372881355932204</v>
+      </c>
+      <c r="X21" s="60">
         <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
-        <v>0.17058170325446315</v>
-      </c>
-      <c r="Y21" s="62">
+        <v>0.17137217883806746</v>
+      </c>
+      <c r="Y21" s="60">
         <f t="shared" si="9"/>
-        <v>0.1739340694769082</v>
-      </c>
-      <c r="Z21" s="62">
+        <v>0.17417271993543179</v>
+      </c>
+      <c r="Z21" s="60">
         <f t="shared" si="9"/>
-        <v>0.17896865520728009</v>
-      </c>
-      <c r="AA21" s="62">
+        <v>0.17776576019777504</v>
+      </c>
+      <c r="AA21" s="60">
         <f t="shared" si="9"/>
-        <v>0.18062032718928123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+        <v>0.17924043194005729</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4937,11 +5097,19 @@
       <c r="U22" s="10">
         <v>1297492000</v>
       </c>
-      <c r="V22" s="59">
+      <c r="V22" s="57">
         <v>1638610000</v>
       </c>
-    </row>
-    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AD22" s="69">
+        <f>(-1*V98)/AD101</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="70">
+        <f>V107/AD101</f>
+        <v>5.2450773190242717E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5178,7 @@
         <v>0.16052213949843261</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5021,7 +5189,7 @@
         <v>-2789000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-2951000</v>
@@ -5078,7 +5246,7 @@
         <v>1663000</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5089,7 +5257,7 @@
         <v>8107000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>26473000</v>
@@ -5146,7 +5314,7 @@
         <v>1640273000</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5157,7 +5325,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>4.5699999999999998E-2</v>
@@ -5215,7 +5383,7 @@
         <v>0.16068505094043886</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5226,7 +5394,7 @@
         <v>3023000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>10504000</v>
@@ -5283,7 +5451,7 @@
         <v>401163000</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5350,25 +5518,25 @@
       <c r="V28" s="11">
         <v>1242408000</v>
       </c>
-      <c r="W28" s="63">
+      <c r="W28" s="61">
         <v>1266000000</v>
       </c>
-      <c r="X28" s="63">
+      <c r="X28" s="61">
         <v>1318000000</v>
       </c>
-      <c r="Y28" s="63">
+      <c r="Y28" s="61">
         <v>1411000000</v>
       </c>
-      <c r="Z28" s="63">
+      <c r="Z28" s="61">
         <v>1456000000</v>
       </c>
-      <c r="AA28" s="63">
+      <c r="AA28" s="61">
         <v>1540000000</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5482,10 +5650,8 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-    </row>
-    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5553,28 +5719,28 @@
         <f>V28/V3</f>
         <v>0.12170924764890283</v>
       </c>
-      <c r="W30" s="64">
+      <c r="W30" s="62">
         <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
-        <v>0.11455976834675595</v>
-      </c>
-      <c r="X30" s="64">
+        <v>0.1141363144608727</v>
+      </c>
+      <c r="X30" s="62">
         <f t="shared" si="16"/>
-        <v>0.11258221576834372</v>
-      </c>
-      <c r="Y30" s="64">
+        <v>0.11310392173689179</v>
+      </c>
+      <c r="Y30" s="62">
         <f t="shared" si="16"/>
-        <v>0.11372612235028613</v>
-      </c>
-      <c r="Z30" s="64">
+        <v>0.11388216303470541</v>
+      </c>
+      <c r="Z30" s="62">
         <f t="shared" si="16"/>
-        <v>0.11324570273003033</v>
-      </c>
-      <c r="AA30" s="64">
+        <v>0.11248454882571075</v>
+      </c>
+      <c r="AA30" s="62">
         <f t="shared" si="16"/>
-        <v>0.1139980753571693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+        <v>0.11312715786380666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5641,23 +5807,23 @@
       <c r="V31" s="12">
         <v>24.1</v>
       </c>
-      <c r="W31" s="65">
+      <c r="W31" s="63">
         <v>25.27</v>
       </c>
-      <c r="X31" s="65">
+      <c r="X31" s="63">
         <v>26.32</v>
       </c>
-      <c r="Y31" s="65">
+      <c r="Y31" s="63">
         <v>28.17</v>
       </c>
-      <c r="Z31" s="65">
+      <c r="Z31" s="63">
         <v>29.07</v>
       </c>
-      <c r="AA31" s="65">
+      <c r="AA31" s="63">
         <v>30.74</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5863,7 +6029,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5968,67 +6134,67 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -6036,67 +6202,67 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6104,7 +6270,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>2628000</v>
@@ -6172,40 +6338,40 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1">
         <v>150209000</v>
@@ -6220,19 +6386,19 @@
         <v>120000000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1">
         <v>110000000</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6240,7 +6406,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>2628000</v>
@@ -6308,13 +6474,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>15757000</v>
@@ -6376,13 +6542,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>109374000</v>
@@ -6444,13 +6610,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>17481000</v>
@@ -6512,13 +6678,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>145451000</v>
@@ -6580,7 +6746,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>85180000</v>
@@ -6648,52 +6814,52 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>10870000</v>
@@ -6716,52 +6882,52 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1">
         <v>4317000</v>
@@ -6784,52 +6950,52 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1">
         <v>15187000</v>
@@ -6852,67 +7018,67 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6920,13 +7086,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
         <v>3962000</v>
@@ -6938,49 +7104,49 @@
         <v>4080000</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6988,13 +7154,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>199000</v>
@@ -7003,19 +7169,19 @@
         <v>346000</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1">
         <v>2866000</v>
@@ -7056,13 +7222,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>137164000</v>
@@ -7124,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>195059000</v>
@@ -7133,58 +7299,58 @@
         <v>206420000</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7192,7 +7358,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>195059000</v>
@@ -7260,13 +7426,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>34435000</v>
@@ -7328,55 +7494,55 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>18000000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1">
         <v>239629000</v>
@@ -7396,31 +7562,31 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1">
         <v>10781000</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1">
         <v>11621000</v>
@@ -7464,52 +7630,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>199054000</v>
@@ -7532,13 +7698,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>34543000</v>
@@ -7600,13 +7766,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>68978000</v>
@@ -7668,13 +7834,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>45381000</v>
@@ -7689,34 +7855,34 @@
         <v>88047000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1">
         <v>1698718000</v>
@@ -7736,22 +7902,22 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1">
         <v>101288000</v>
@@ -7763,40 +7929,40 @@
         <v>134572000</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7804,22 +7970,22 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>17616000</v>
@@ -7872,13 +8038,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>45241000</v>
@@ -7890,13 +8056,13 @@
         <v>71235000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>163463000</v>
@@ -7940,13 +8106,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>90622000</v>
@@ -8008,7 +8174,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>107700000</v>
@@ -8017,58 +8183,58 @@
         <v>113642000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8076,7 +8242,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>107700000</v>
@@ -8144,13 +8310,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>71000</v>
@@ -8212,13 +8378,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-91199000</v>
@@ -8280,13 +8446,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-853000</v>
@@ -8301,7 +8467,7 @@
         <v>-631000</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-253700000</v>
@@ -8337,10 +8503,10 @@
         <v>56000</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8348,7 +8514,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>87359000</v>
@@ -8416,7 +8582,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>87359000</v>
@@ -8484,7 +8650,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>195059000</v>
@@ -8552,67 +8718,67 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -8620,67 +8786,67 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8688,13 +8854,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>15969000</v>
@@ -8756,7 +8922,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>12522000</v>
@@ -8824,13 +8990,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-3037000</v>
@@ -8892,22 +9058,22 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1">
         <v>3877000</v>
@@ -8957,7 +9123,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:U80" si="18">B79/B3</f>
@@ -9060,18 +9226,18 @@
       <c r="AK80" s="15"/>
       <c r="AL80" s="15"/>
     </row>
-    <row r="81" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>899000</v>
@@ -9126,86 +9292,86 @@
       </c>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-5134000</v>
@@ -9261,32 +9427,32 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD83" s="72"/>
-    </row>
-    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC83" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD83" s="74"/>
+    </row>
+    <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1">
         <v>-4311000</v>
@@ -9331,23 +9497,23 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD84" s="74"/>
-    </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="AC84" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD84" s="76"/>
+    </row>
+    <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>7157000</v>
@@ -9359,10 +9525,10 @@
         <v>20868000</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1">
         <v>20854000</v>
@@ -9401,20 +9567,20 @@
         <v>55936000</v>
       </c>
       <c r="V85" s="1"/>
-      <c r="AC85" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD85" s="50">
+      <c r="AC85" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD85" s="48">
         <f>V17</f>
         <v>4943000</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>-12522000</v>
@@ -9474,26 +9640,26 @@
         <v>281587000</v>
       </c>
       <c r="V86" s="1"/>
-      <c r="AC86" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD86" s="50">
+      <c r="AC86" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD86" s="48">
         <f>V56</f>
         <v>283293000</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>37601000</v>
@@ -9549,26 +9715,26 @@
       <c r="V87" s="10">
         <v>1481915000</v>
       </c>
-      <c r="AC87" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD87" s="50">
+      <c r="AC87" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD87" s="48">
         <f>V61</f>
         <v>1619883000</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-41607000</v>
@@ -9624,17 +9790,17 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD88" s="52">
+      <c r="AC88" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD88" s="50">
         <f>AD85/(AD86+AD87)</f>
         <v>2.5972374599091204E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:U89" si="20">(-1*B88)/B3</f>
@@ -9720,10 +9886,10 @@
         <f t="shared" ref="V89" si="21">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
-      <c r="AC89" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD89" s="50">
+      <c r="AC89" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD89" s="48">
         <f>V27</f>
         <v>401163000</v>
       </c>
@@ -9735,65 +9901,58 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
-        <f>AL27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-15707000</v>
@@ -9805,58 +9964,58 @@
         <v>-6885000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC90" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="50">
+      <c r="AD90" s="48">
         <f>V25</f>
         <v>1640273000</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-200209000</v>
@@ -9877,7 +10036,7 @@
         <v>-110000000</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1">
         <v>-4297000</v>
@@ -9885,53 +10044,53 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD91" s="52">
+      <c r="AC91" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD91" s="50">
         <f>AD89/AD90</f>
         <v>0.24457087326317023</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1">
         <v>50000000</v>
@@ -9949,40 +10108,40 @@
         <v>506193000</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1">
         <v>110000000</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC92" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD92" s="54">
+        <v>91</v>
+      </c>
+      <c r="AC92" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD92" s="52">
         <f>AD88*(1-AD91)</f>
         <v>1.9620288262673291E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-2414000</v>
@@ -9991,37 +10150,37 @@
         <v>4467000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>-298534000</v>
@@ -10036,23 +10195,23 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD93" s="76"/>
-    </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="AC93" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD93" s="78"/>
+    </row>
+    <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-41607000</v>
@@ -10108,34 +10267,35 @@
       <c r="V94" s="10">
         <v>-314584000</v>
       </c>
-      <c r="AC94" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD94" s="55">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="AC94" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD94" s="53">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-1186692000</v>
@@ -10144,64 +10304,64 @@
         <v>-1267720000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1">
         <v>-800000000</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC95" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD95" s="56" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AC95" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD95" s="54" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+        <v>1.3318000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>630000</v>
@@ -10222,63 +10382,63 @@
         <v>17100000</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC96" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD96" s="55">
+        <v>91</v>
+      </c>
+      <c r="AC96" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD96" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-2217000</v>
@@ -10290,10 +10450,10 @@
         <v>-59000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-3236000</v>
@@ -10331,98 +10491,98 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD97" s="54">
+      <c r="AC97" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD97" s="52">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.7720035000000011E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.9501696000000014E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-93012000</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1">
         <v>-62482000</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC98" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD98" s="76"/>
-    </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="V98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD98" s="78"/>
+    </row>
+    <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>3211000</v>
@@ -10478,26 +10638,26 @@
       <c r="V99" s="1">
         <v>46011000</v>
       </c>
-      <c r="AC99" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD99" s="50">
+      <c r="AC99" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD99" s="48">
         <f>AD86+AD87</f>
         <v>1903176000</v>
       </c>
     </row>
-    <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>3841000</v>
@@ -10553,71 +10713,71 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD100" s="52">
+      <c r="AC100" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD100" s="50">
         <f>AD99/AD103</f>
-        <v>8.4844313321093781E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+        <v>7.8611781778190476E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1">
         <v>56000</v>
@@ -10628,26 +10788,26 @@
       <c r="V101" s="1">
         <v>-56000</v>
       </c>
-      <c r="AC101" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD101" s="41" cm="1">
+      <c r="AC101" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20528215398</v>
-      </c>
-    </row>
-    <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+        <v>22306630176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>-165000</v>
@@ -10703,26 +10863,26 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD102" s="52">
+      <c r="AC102" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD102" s="50">
         <f>AD101/AD103</f>
-        <v>0.91515568667890623</v>
-      </c>
-    </row>
-    <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+        <v>0.9213882182218095</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>3004000</v>
@@ -10778,26 +10938,26 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD103" s="57">
+      <c r="AC103" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD103" s="55">
         <f>AD99+AD101</f>
-        <v>22431391398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:46" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24209806176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11">
         <v>2839000</v>
@@ -10853,108 +11013,124 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD104" s="74"/>
-    </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AC104" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD104" s="76"/>
+    </row>
+    <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:U105" si="22">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="22"/>
+        <v>3804746.6251044795</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="22"/>
+        <v>4978642.8326260298</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="22"/>
+        <v>-42619595.769728571</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="22"/>
+        <v>-50903876.002958044</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="22"/>
+        <v>108285761.27449515</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="22"/>
+        <v>90469436.302981257</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="22"/>
+        <v>122341417.52013233</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="22"/>
+        <v>113600536.04552412</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="22"/>
+        <v>135926516.76946461</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="22"/>
+        <v>175021445.04969603</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="22"/>
+        <v>123574500.57947671</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="22"/>
+        <v>299453122.48631787</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="22"/>
+        <v>371827694.36429179</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="22"/>
+        <v>559763908.56339157</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="22"/>
+        <v>760842653.52779698</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="22"/>
+        <v>462414725.79381603</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="22"/>
+        <v>578224248.50802279</v>
+      </c>
+      <c r="V105" s="1">
+        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <v>1167099721.3622367</v>
+      </c>
+      <c r="W105" s="28">
+        <f>V105*(1+$AD$106)</f>
+        <v>1236383175.0954633</v>
+      </c>
+      <c r="X105" s="28">
+        <f t="shared" ref="X105:AA105" si="23">W105*(1+$AD$106)</f>
+        <v>1309779556.6902452</v>
+      </c>
+      <c r="Y105" s="28">
+        <f t="shared" si="23"/>
+        <v>1387533025.1006017</v>
+      </c>
+      <c r="Z105" s="28">
+        <f t="shared" si="23"/>
+        <v>1469902233.4795353</v>
+      </c>
+      <c r="AA105" s="28">
+        <f t="shared" si="23"/>
+        <v>1557161189.6095037</v>
+      </c>
+      <c r="AB105" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC105" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.67274088866699944</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>7.2017609312042978</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="22">(H106/G106)-1</f>
-        <v>-0.35116448326055316</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="22"/>
-        <v>-3.9366797532249018</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="22"/>
-        <v>-0.24153473004717252</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.16144180893387716</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="22"/>
-        <v>-0.45341513913128317</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="22"/>
-        <v>1.0169565476072426</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.45057570722018458</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="22"/>
-        <v>-0.48004067107269954</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="22"/>
-        <v>2.40174951438591</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.2978255371007672</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.88018083460307328</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.26075853544768801</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="22"/>
-        <v>-0.17971769858699804</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.34714171383272907</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="22"/>
-        <v>0.3186991448328107</v>
-      </c>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD105" s="26">
+      <c r="AD105" s="24">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.9595512721192608E-2</v>
+        <v>9.1833928969421205E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -10965,273 +11141,318 @@
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
+    </row>
+    <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:V106" si="24">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.67274088866699944</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="24"/>
+        <v>7.2017609312042978</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.35116448326055316</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="24"/>
+        <v>-3.9366797532249018</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.24153473004717252</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.16144180893387716</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.45341513913128317</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="24"/>
+        <v>1.0169565476072426</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.45057570722018458</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.48004067107269954</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="24"/>
+        <v>2.40174951438591</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.2978255371007672</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.88018083460307328</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.26075853544768801</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.17971769858699804</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.34714171383272907</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="24"/>
+        <v>0.31893700441223882</v>
+      </c>
+      <c r="W106" s="67">
+        <v>981700000</v>
+      </c>
+      <c r="X106" s="67">
+        <v>1053000000</v>
+      </c>
+      <c r="Y106" s="67">
+        <v>1138000000</v>
+      </c>
+      <c r="Z106" s="67">
+        <v>1324000000</v>
+      </c>
+      <c r="AA106" s="67">
+        <v>1403000000</v>
+      </c>
+      <c r="AB106" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC106" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD106" s="31">
+        <f>(SUM(W4:AA4)/5)</f>
+        <v>5.9363782258776567E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
         <v>-4006000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-6701000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>-54960000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>-35660000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>104722000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>79428000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>92251000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>50423000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>101701000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>147525000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>76707000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>260938000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>338652000</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R107" s="1">
         <v>636727000</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S107" s="1">
         <v>802759000</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T107" s="1">
         <v>658489000</v>
       </c>
-      <c r="U106" s="1">
+      <c r="U107" s="1">
         <v>887078000</v>
       </c>
-      <c r="V106" s="1">
-        <f>V87+V93</f>
-        <v>1169789000</v>
-      </c>
-      <c r="W106" s="30">
-        <f>V106*(1+$AD$106)</f>
-        <v>1237336884.3668094</v>
-      </c>
-      <c r="X106" s="30">
-        <f t="shared" ref="X106:AA106" si="23">W106*(1+$AD$106)</f>
-        <v>1308785229.9983697</v>
-      </c>
-      <c r="Y106" s="30">
-        <f t="shared" si="23"/>
-        <v>1384359263.7573791</v>
-      </c>
-      <c r="Z106" s="30">
-        <f t="shared" si="23"/>
-        <v>1464297217.9272377</v>
-      </c>
-      <c r="AA106" s="30">
-        <f t="shared" si="23"/>
-        <v>1548851081.1924844</v>
-      </c>
-      <c r="AB106" s="31" t="s">
+      <c r="V107" s="1">
+        <v>1170000000</v>
+      </c>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="32">
+        <f>AA105*(1+AD107)/(AD108-AD107)</f>
+        <v>23881436329.742142</v>
+      </c>
+      <c r="AB107" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="AC106" s="32" t="s">
+      <c r="AC107" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AD106" s="33">
-        <f>(SUM(W4:AA4)/5)</f>
-        <v>5.7743648099622513E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="W107" s="31"/>
-      <c r="X107" s="31"/>
-      <c r="Y107" s="31"/>
-      <c r="Z107" s="31"/>
-      <c r="AA107" s="34">
-        <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>24577130691.331181</v>
-      </c>
-      <c r="AB107" s="35" t="s">
+      <c r="AD107" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="W108" s="32">
+        <f t="shared" ref="W108:Z108" si="25">W107+W105</f>
+        <v>1236383175.0954633</v>
+      </c>
+      <c r="X108" s="32">
+        <f t="shared" si="25"/>
+        <v>1309779556.6902452</v>
+      </c>
+      <c r="Y108" s="32">
+        <f t="shared" si="25"/>
+        <v>1387533025.1006017</v>
+      </c>
+      <c r="Z108" s="32">
+        <f t="shared" si="25"/>
+        <v>1469902233.4795353</v>
+      </c>
+      <c r="AA108" s="32">
+        <f>AA107+AA105</f>
+        <v>25438597519.351646</v>
+      </c>
+      <c r="AB108" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC108" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="AC107" s="36" t="s">
+      <c r="AD108" s="37">
+        <f>AD105</f>
+        <v>9.1833928969421205E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+      <c r="W109" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="34">
-        <f t="shared" ref="W108:Y108" si="24">W107+W106</f>
-        <v>1237336884.3668094</v>
-      </c>
-      <c r="X108" s="34">
-        <f t="shared" si="24"/>
-        <v>1308785229.9983697</v>
-      </c>
-      <c r="Y108" s="34">
-        <f t="shared" si="24"/>
-        <v>1384359263.7573791</v>
-      </c>
-      <c r="Z108" s="34">
-        <f>Z107+Z106</f>
-        <v>1464297217.9272377</v>
-      </c>
-      <c r="AA108" s="34">
-        <f>AA107+AA106</f>
-        <v>26125981772.523666</v>
-      </c>
-      <c r="AB108" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC108" s="38" t="s">
+      <c r="X109" s="72"/>
+    </row>
+    <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
+      <c r="W110" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="AD108" s="39">
-        <f>AD105</f>
-        <v>8.9595512721192608E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="69" t="s">
+      <c r="X110" s="39">
+        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
+        <v>20726438672.632092</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
+      <c r="W111" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="X109" s="70"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="X110" s="41">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>21358682120.840248</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="X111" s="41">
+      <c r="X111" s="39">
         <f>V40</f>
         <v>737877000</v>
       </c>
     </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="X112" s="41">
+    <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
+      <c r="W112" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="X112" s="39">
         <f>AD99</f>
         <v>1903176000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="X113" s="41">
+      <c r="W113" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>20193383120.840248</v>
+        <v>19561139672.632092</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="X114" s="47">
+      <c r="W114" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="X114" s="45">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="42" t="s">
+      <c r="W115" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="X115" s="41">
+        <f>X113/X114</f>
+        <v>454.87625527615637</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W116" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="X116" s="56" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price")</f>
+        <v>447.91</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W117" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="X115" s="43">
-        <f>X113/X114</f>
-        <v>469.57849333369558</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="40" t="s">
+      <c r="X117" s="43">
+        <f>X115/X116-1</f>
+        <v>1.5552801402416438E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W118" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="X116" s="58" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>412.2</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="X117" s="45">
-        <f>X115/X116-1</f>
-        <v>0.13920061458926636</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="X118" s="46" t="str">
+      <c r="X118" s="44" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -11290,8 +11511,1643 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{25644EF6-F4DB-7640-9918-3A92358C3381}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{09850EAB-BE63-4F4C-8A4D-C38D5A681AF3}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:ULTA/explorer/revenue_proj" xr:uid="{B86A6E5A-3219-144F-B30D-F2293AF1966B}"/>
+    <hyperlink ref="AB106" r:id="rId45" xr:uid="{30A2E8B7-8BBC-7B43-A21D-ACCEFD71BD1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED039ED4-41DC-CD48-950F-0A9D1C5D5F18}">
+  <dimension ref="A1:K118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="O130" sqref="O130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="25">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="25">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="25">
+        <v>2026</v>
+      </c>
+      <c r="F1" s="25">
+        <v>2027</v>
+      </c>
+      <c r="G1" s="25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10208000000</v>
+      </c>
+      <c r="C3" s="26">
+        <v>11092000000</v>
+      </c>
+      <c r="D3" s="26">
+        <v>11653000000</v>
+      </c>
+      <c r="E3" s="26">
+        <v>12390000000</v>
+      </c>
+      <c r="F3" s="26">
+        <v>12944000000</v>
+      </c>
+      <c r="G3" s="26">
+        <v>13613000000</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="16" t="e">
+        <f t="shared" ref="B4:G4" si="0">(B3/A3)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" si="0"/>
+        <v>8.6598746081504752E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0576992426974332E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>6.3245516176092087E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>4.4713478611783763E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>5.1684177997527891E-2</v>
+      </c>
+      <c r="H4" s="17" t="e">
+        <f>(B4+A4+#REF!)/3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="17" t="e">
+        <f>(B20+A20+#REF!)/3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="17" t="e">
+        <f>(B29+A29+#REF!)/3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="17" t="e">
+        <f>(B106+A106+#REF!)/3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6164070000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4044510000</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B6/B3</f>
+        <v>0.39620983542319749</v>
+      </c>
+      <c r="H7" s="17">
+        <f>B7</f>
+        <v>0.39620983542319749</v>
+      </c>
+      <c r="I7" s="20">
+        <f>B21</f>
+        <v>0.17153800940438871</v>
+      </c>
+      <c r="J7" s="20">
+        <f>B30</f>
+        <v>0.12170924764890283</v>
+      </c>
+      <c r="K7" s="20">
+        <f>B107/B3</f>
+        <v>0.11461598746081504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" ref="B9" si="1">B8/B3</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="17">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f>B13</f>
+        <v>0.23464919670846396</v>
+      </c>
+      <c r="J10" s="20">
+        <f>B80</f>
+        <v>4.2166927899686523E-3</v>
+      </c>
+      <c r="K10" s="20">
+        <f>B89</f>
+        <v>3.05766065830721E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2395299000</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" ref="B13" si="2">B12/B3</f>
+        <v>0.23464919670846396</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="17">
+        <f>B28/B72</f>
+        <v>0.63394276284805018</v>
+      </c>
+      <c r="I13" s="20">
+        <f>B28/B54</f>
+        <v>0.23134318770015927</v>
+      </c>
+      <c r="J13" s="20">
+        <f>B22/(B72+B56+B61)</f>
+        <v>0.42418211606717809</v>
+      </c>
+      <c r="K13" s="21">
+        <f>B67/B72</f>
+        <v>1.7402698525521083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10601000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B12+B14</f>
+        <v>2405900000</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15+B5</f>
+        <v>8569970000</v>
+      </c>
+      <c r="H16" s="27" t="e">
+        <f>(B35+A35+#REF!+#REF!+#REF!)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="64" t="e" vm="2">
+        <f>J101/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="64" t="e" vm="2">
+        <f>J101/B28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="65" t="e" vm="2">
+        <f>J101/B107</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4943000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>112450000</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1751060000</v>
+      </c>
+      <c r="C19" s="59">
+        <v>1927000000</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1997000000</v>
+      </c>
+      <c r="E19" s="59">
+        <v>2158000000</v>
+      </c>
+      <c r="F19" s="59">
+        <v>2301000000</v>
+      </c>
+      <c r="G19" s="59">
+        <v>2440000000</v>
+      </c>
+      <c r="H19" s="46">
+        <f>B40-B56-B61</f>
+        <v>-1165299000</v>
+      </c>
+      <c r="I19" s="64" t="e" vm="2">
+        <f>J101/C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" s="66" t="e" vm="2">
+        <f>J101/C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="65" t="e" vm="2">
+        <f>J101/C106</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="15" t="e">
+        <f t="shared" ref="B20:G20" si="3">(B19/A19)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10047628293719235</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="3"/>
+        <v>3.6325895173845435E-2</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.0620931397095585E-2</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.6265060240963791E-2</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.0408518035636627E-2</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="58">
+        <f>B19/B3</f>
+        <v>0.17153800940438871</v>
+      </c>
+      <c r="C21" s="60">
+        <f>C19/C3</f>
+        <v>0.17372881355932204</v>
+      </c>
+      <c r="D21" s="60">
+        <f t="shared" ref="D21:G21" si="4">D19/D3</f>
+        <v>0.17137217883806746</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.17417271993543179</v>
+      </c>
+      <c r="F21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.17776576019777504</v>
+      </c>
+      <c r="G21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.17924043194005729</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="57">
+        <v>1638610000</v>
+      </c>
+      <c r="J22" s="69" t="e" vm="2">
+        <f>(-1*B98)/J101</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="70" t="e" vm="2">
+        <f>B107/J101</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B22/B3</f>
+        <v>0.16052213949843261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1663000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1640273000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25/B3</f>
+        <v>0.16068505094043886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>401163000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1242408000</v>
+      </c>
+      <c r="C28" s="61">
+        <v>1266000000</v>
+      </c>
+      <c r="D28" s="61">
+        <v>1318000000</v>
+      </c>
+      <c r="E28" s="61">
+        <v>1411000000</v>
+      </c>
+      <c r="F28" s="61">
+        <v>1456000000</v>
+      </c>
+      <c r="G28" s="61">
+        <v>1540000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="15" t="e">
+        <f t="shared" ref="B29:G29" si="5">(B28/A28)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8988931172368551E-2</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.1074249605055346E-2</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.0561456752655571E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
+        <v>3.1892274982282087E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.7692307692307709E-2</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B28/B3</f>
+        <v>0.12170924764890283</v>
+      </c>
+      <c r="C30" s="62">
+        <f t="shared" ref="C30:G30" si="6">C28/C3</f>
+        <v>0.1141363144608727</v>
+      </c>
+      <c r="D30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.11310392173689179</v>
+      </c>
+      <c r="E30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.11388216303470541</v>
+      </c>
+      <c r="F30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.11248454882571075</v>
+      </c>
+      <c r="G30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.11312715786380666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="12">
+        <v>24.1</v>
+      </c>
+      <c r="C31" s="63">
+        <v>25.27</v>
+      </c>
+      <c r="D31" s="63">
+        <v>26.32</v>
+      </c>
+      <c r="E31" s="63">
+        <v>28.17</v>
+      </c>
+      <c r="F31" s="63">
+        <v>29.07</v>
+      </c>
+      <c r="G31" s="63">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="12">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <v>51674000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>51977000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="22" t="e">
+        <f t="shared" ref="B35" si="7">(B34-A34)/A34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1">
+        <v>737877000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1">
+        <v>737877000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1">
+        <v>199422000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1603451000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1">
+        <v>168554000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2709304000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1009273000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10870000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1312000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1">
+        <v>12182000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1">
+        <v>78389000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2661107000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="11">
+        <v>5370411000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1">
+        <v>559527000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="1">
+        <v>283293000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56250000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1">
+        <v>394677000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1">
+        <v>321333000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1681775000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1619883000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1">
+        <v>55346000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1">
+        <v>53596000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1670996000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="10">
+        <v>3410600000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="1">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="1">
+        <v>424438000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="1">
+        <v>881467000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1959811000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="11">
+        <v>5370411000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1242408000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <v>241372000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="1">
+        <v>15653000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43044000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" ref="B80" si="8">B79/B3</f>
+        <v>4.2166927899686523E-3</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-104233000</v>
+      </c>
+      <c r="I83" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" s="74"/>
+    </row>
+    <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="I84" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="J84" s="76"/>
+    </row>
+    <row r="85" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="I85" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J85" s="48">
+        <f>B17</f>
+        <v>4943000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="I86" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="J86" s="48">
+        <f>B56</f>
+        <v>283293000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="10">
+        <v>1481915000</v>
+      </c>
+      <c r="I87" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="J87" s="48">
+        <f>B61</f>
+        <v>1619883000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-312126000</v>
+      </c>
+      <c r="I88" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="50">
+        <f>J85/(J86+J87)</f>
+        <v>2.5972374599091204E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89" si="9">(-1*B88)/B3</f>
+        <v>3.05766065830721E-2</v>
+      </c>
+      <c r="I89" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J89" s="48">
+        <f>B27</f>
+        <v>401163000</v>
+      </c>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="48">
+        <f>B25</f>
+        <v>1640273000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-2458000</v>
+      </c>
+      <c r="I91" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J91" s="50">
+        <f>J89/J90</f>
+        <v>0.24457087326317023</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I92" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J92" s="52">
+        <f>J88*(1-J91)</f>
+        <v>1.9620288262673291E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="1">
+        <f>B88</f>
+        <v>-312126000</v>
+      </c>
+      <c r="I93" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="J93" s="78"/>
+    </row>
+    <row r="94" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="10">
+        <v>-314584000</v>
+      </c>
+      <c r="I94" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="J94" s="53">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I95" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="54" t="e" cm="1" vm="3">
+        <f t="array" ref="J95">_FV(#REF!,"Beta")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J96" s="53">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-900033000</v>
+      </c>
+      <c r="I97" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J97" s="52" t="e" vm="2">
+        <f>(J94)+((J95)*(J96-J94))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="J98" s="78"/>
+    </row>
+    <row r="99" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="1">
+        <v>46011000</v>
+      </c>
+      <c r="I99" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J99" s="48">
+        <f>J86+J87</f>
+        <v>1903176000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="10">
+        <v>-861014000</v>
+      </c>
+      <c r="I100" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J100" s="50" t="e" vm="2">
+        <f>J99/J103</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-56000</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="J101" s="39" t="e" cm="1" vm="4">
+        <f t="array" ref="J101">_FV(#REF!,"Market cap",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="10">
+        <v>306317000</v>
+      </c>
+      <c r="I102" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="J102" s="50" t="e" vm="2">
+        <f>J101/J103</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="1">
+        <v>431560000</v>
+      </c>
+      <c r="I103" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="J103" s="55" t="e" vm="2">
+        <f>J99+J101</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="11">
+        <v>737877000</v>
+      </c>
+      <c r="I104" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104" s="76"/>
+    </row>
+    <row r="105" spans="1:11" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f>(B22*(1-$AD$91))+B77+B88+B81</f>
+        <v>1567856000</v>
+      </c>
+      <c r="C105" s="28">
+        <f>B105*(1+$AD$106)</f>
+        <v>1567856000</v>
+      </c>
+      <c r="D105" s="28">
+        <f t="shared" ref="D105:G105" si="10">C105*(1+$AD$106)</f>
+        <v>1567856000</v>
+      </c>
+      <c r="E105" s="28">
+        <f t="shared" si="10"/>
+        <v>1567856000</v>
+      </c>
+      <c r="F105" s="28">
+        <f t="shared" si="10"/>
+        <v>1567856000</v>
+      </c>
+      <c r="G105" s="28">
+        <f t="shared" si="10"/>
+        <v>1567856000</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="24" t="e" vm="2">
+        <f>(J100*J92)+(J102*J97)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" ht="35" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="15" t="e">
+        <f t="shared" ref="B106" si="11">(B107/A107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C106" s="67">
+        <v>981700000</v>
+      </c>
+      <c r="D106" s="67">
+        <v>1053000000</v>
+      </c>
+      <c r="E106" s="67">
+        <v>1138000000</v>
+      </c>
+      <c r="F106" s="67">
+        <v>1324000000</v>
+      </c>
+      <c r="G106" s="67">
+        <v>1403000000</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J106" s="31">
+        <f>(SUM(C4:G4)/5)</f>
+        <v>5.9363782258776567E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="52" x14ac:dyDescent="0.25">
+      <c r="A107" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1170000000</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="32" t="e" vm="2">
+        <f>G105*(1+J107)/(J108-J107)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I107" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J107" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C108" s="32">
+        <f t="shared" ref="C108:F108" si="12">C107+C105</f>
+        <v>1567856000</v>
+      </c>
+      <c r="D108" s="32">
+        <f t="shared" si="12"/>
+        <v>1567856000</v>
+      </c>
+      <c r="E108" s="32">
+        <f t="shared" si="12"/>
+        <v>1567856000</v>
+      </c>
+      <c r="F108" s="32">
+        <f t="shared" si="12"/>
+        <v>1567856000</v>
+      </c>
+      <c r="G108" s="32" t="e" vm="2">
+        <f>G107+G105</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I108" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J108" s="37" t="e" vm="2">
+        <f>J105</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C109" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" s="72"/>
+    </row>
+    <row r="110" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="C110" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" s="39" t="e" vm="2">
+        <f>NPV(J108,C108,D108,E108,F108,G108)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="C111" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="39">
+        <f>B40</f>
+        <v>737877000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="C112" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="39">
+        <f>J99</f>
+        <v>1903176000</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="C113" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="39" t="e" vm="2">
+        <f>D110+D111-D112</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="C114" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="45" t="e">
+        <f>B34*(1+(5*H16))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="C115" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="41" t="e" vm="2">
+        <f>D113/D114</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="C116" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="56" t="e" cm="1" vm="5">
+        <f t="array" ref="D116">_FV(#REF!,"Price")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="C117" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D117" s="43" t="e" vm="2">
+        <f>D115/D116-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="C118" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="44" t="e" vm="2">
+        <f>IF(D115&gt;D116,"BUY","SELL")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I104:J104"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ULTA" display="ROIC.AI | ULTA" xr:uid="{F6798634-70DF-0348-A1B8-BF68749E8389}"/>
+    <hyperlink ref="B36" r:id="rId2" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{6C591D54-F908-0C47-A33F-5FA9BB99CB80}"/>
+    <hyperlink ref="B74" r:id="rId3" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{A5D74D45-CD8F-5547-A72A-5EC39014E34B}"/>
+    <hyperlink ref="C1" r:id="rId4" display="https://finbox.com/NASDAQGS:ULTA/explorer/revenue_proj" xr:uid="{77047621-2C6A-E646-B00D-8FBD97A93C0C}"/>
+    <hyperlink ref="H106" r:id="rId5" xr:uid="{F7DEE708-5813-F848-9B56-6BD568F1C759}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0551A5-E868-F14C-9461-021BDCE36D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233B073-E265-C44A-B2CD-59FAC33B25B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,6 +2373,7 @@
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2393,7 +2394,7 @@
       <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2403,6 +2404,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2530,11 +2532,9 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3318000000000001</v>
-    <v>-3.23</v>
-    <v>-7.1599999999999997E-3</v>
-    <v>-0.72</v>
-    <v>-1.6070000000000001E-3</v>
+    <v>1.3364</v>
+    <v>-0.22</v>
+    <v>-4.8280000000000003E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2542,25 +2542,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>454.62</v>
+    <v>457.3</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45093.999662314061</v>
+    <v>45100.774908483596</v>
     <v>0</v>
-    <v>442.4</v>
-    <v>22306630176</v>
+    <v>453.11</v>
+    <v>22684126229</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>454.62</v>
-    <v>18.349</v>
-    <v>451.14</v>
-    <v>447.91</v>
-    <v>447.19</v>
+    <v>455.13</v>
+    <v>18.5349</v>
+    <v>455.71</v>
+    <v>455.49</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>1865692</v>
-    <v>1423289</v>
+    <v>281692</v>
+    <v>1475448</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2611,8 +2610,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2633,7 +2630,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2659,7 +2655,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2670,16 +2666,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2745,19 +2738,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2802,9 +2789,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2812,9 +2796,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3179,7 +3160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ88" sqref="AJ88"/>
+      <selection pane="bottomRight" activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4563,15 +4544,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.1852106363636365</v>
+        <v>2.2221910490791537</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>17.954351691231867</v>
+        <v>18.258193949974565</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>19.065495876923077</v>
+        <v>19.388142076068377</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4810,15 +4791,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.0110557316985216</v>
+        <v>2.0450889135412909</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>17.619771071090046</v>
+        <v>17.917951207740916</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>22.722451029846184</v>
+        <v>23.10698403687481</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5106,7 +5087,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>5.2450773190242717E-2</v>
+        <v>5.1577917887982848E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10272,7 +10253,7 @@
       </c>
       <c r="AD94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10347,7 +10328,7 @@
       </c>
       <c r="AD95" s="54" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3318000000000001</v>
+        <v>1.3364</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10496,7 +10477,7 @@
       </c>
       <c r="AD97" s="52">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9501696000000014E-2</v>
+        <v>9.9733428000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10718,7 +10699,7 @@
       </c>
       <c r="AD100" s="50">
         <f>AD99/AD103</f>
-        <v>7.8611781778190476E-2</v>
+        <v>7.7404832066336249E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10793,7 +10774,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22306630176</v>
+        <v>22684126229</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10868,7 +10849,7 @@
       </c>
       <c r="AD102" s="50">
         <f>AD101/AD103</f>
-        <v>0.9213882182218095</v>
+        <v>0.9225951679336637</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10943,7 +10924,7 @@
       </c>
       <c r="AD103" s="55">
         <f>AD99+AD101</f>
-        <v>24209806176</v>
+        <v>24587302229</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11130,7 +11111,7 @@
       </c>
       <c r="AD105" s="24">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1833928969421205E-2</v>
+        <v>9.2165449266066513E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11326,7 +11307,7 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23881436329.742142</v>
+        <v>23763560532.842613</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
@@ -11357,7 +11338,7 @@
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25438597519.351646</v>
+        <v>25320721722.452118</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
@@ -11367,7 +11348,7 @@
       </c>
       <c r="AD108" s="37">
         <f>AD105</f>
-        <v>9.1833928969421205E-2</v>
+        <v>9.2165449266066513E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11382,7 +11363,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20726438672.632092</v>
+        <v>20622479706.82412</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11409,7 +11390,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>19561139672.632092</v>
+        <v>19457180706.82412</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11427,7 +11408,7 @@
       </c>
       <c r="X115" s="41">
         <f>X113/X114</f>
-        <v>454.87625527615637</v>
+        <v>452.45878544257232</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11436,7 +11417,7 @@
       </c>
       <c r="X116" s="56" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>447.91</v>
+        <v>455.49</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11445,7 +11426,7 @@
       </c>
       <c r="X117" s="43">
         <f>X115/X116-1</f>
-        <v>1.5552801402416438E-2</v>
+        <v>-6.6548432620423537E-3</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11454,7 +11435,7 @@
       </c>
       <c r="X118" s="44" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -12768,7 +12749,7 @@
       </c>
       <c r="J94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233B073-E265-C44A-B2CD-59FAC33B25B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB26280-544F-7C43-929F-D2D3C6BA3672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2368,12 +2368,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2390,14 +2391,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2405,6 +2406,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2532,9 +2534,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3364</v>
-    <v>-0.22</v>
-    <v>-4.8280000000000003E-4</v>
+    <v>1.3353999999999999</v>
+    <v>10.119999999999999</v>
+    <v>2.2317999999999998E-2</v>
+    <v>0.12</v>
+    <v>2.589E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2542,24 +2546,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>457.3</v>
+    <v>465.65</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.774908483596</v>
+    <v>45103.912886411716</v>
     <v>0</v>
-    <v>453.11</v>
-    <v>22684126229</v>
+    <v>452.82</v>
+    <v>23086523076</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>455.13</v>
-    <v>18.5349</v>
-    <v>455.71</v>
-    <v>455.49</v>
+    <v>18.443000000000001</v>
+    <v>453.45</v>
+    <v>463.57</v>
+    <v>463.69</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>281692</v>
-    <v>1475448</v>
+    <v>786952</v>
+    <v>1479096</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2610,6 +2615,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2630,6 +2637,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2655,7 +2663,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2666,13 +2674,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2738,13 +2749,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2789,6 +2806,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2796,6 +2816,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3157,10 +3180,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X89" sqref="X89"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4544,15 +4567,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.2221910490791537</v>
+        <v>2.2616108028996864</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>18.258193949974565</v>
+        <v>18.582078573222322</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>19.388142076068377</v>
+        <v>19.732071005128205</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4791,15 +4814,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.0450889135412909</v>
+        <v>2.0813670281283807</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>17.917951207740916</v>
+        <v>18.23580021800948</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>23.10698403687481</v>
+        <v>23.516882016909442</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5087,7 +5110,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>5.1577917887982848E-2</v>
+        <v>5.0678917572317073E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10253,7 +10276,7 @@
       </c>
       <c r="AD94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10328,7 +10351,7 @@
       </c>
       <c r="AD95" s="54" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3364</v>
+        <v>1.3353999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10477,7 +10500,7 @@
       </c>
       <c r="AD97" s="52">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9733428000000013E-2</v>
+        <v>9.9632994000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10699,7 +10722,7 @@
       </c>
       <c r="AD100" s="50">
         <f>AD99/AD103</f>
-        <v>7.7404832066336249E-2</v>
+        <v>7.6158420083889775E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10774,7 +10797,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22684126229</v>
+        <v>23086523076</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10849,7 +10872,7 @@
       </c>
       <c r="AD102" s="50">
         <f>AD101/AD103</f>
-        <v>0.9225951679336637</v>
+        <v>0.92384157991611027</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10924,7 +10947,7 @@
       </c>
       <c r="AD103" s="55">
         <f>AD99+AD101</f>
-        <v>24587302229</v>
+        <v>24989699076</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11111,7 +11134,7 @@
       </c>
       <c r="AD105" s="24">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.2165449266066513E-2</v>
+        <v>9.21945276042999E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11307,7 +11330,7 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23763560532.842613</v>
+        <v>23753276885.119507</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
@@ -11338,7 +11361,7 @@
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25320721722.452118</v>
+        <v>25310438074.729012</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
@@ -11348,7 +11371,7 @@
       </c>
       <c r="AD108" s="37">
         <f>AD105</f>
-        <v>9.2165449266066513E-2</v>
+        <v>9.21945276042999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11363,7 +11386,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20622479706.82412</v>
+        <v>20613410277.829025</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11390,7 +11413,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>19457180706.82412</v>
+        <v>19448111277.829025</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11408,7 +11431,7 @@
       </c>
       <c r="X115" s="41">
         <f>X113/X114</f>
-        <v>452.45878544257232</v>
+        <v>452.24788423907273</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11417,7 +11440,7 @@
       </c>
       <c r="X116" s="56" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>455.49</v>
+        <v>463.57</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11426,7 +11449,7 @@
       </c>
       <c r="X117" s="43">
         <f>X115/X116-1</f>
-        <v>-6.6548432620423537E-3</v>
+        <v>-2.4423745628335047E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -12749,7 +12772,7 @@
       </c>
       <c r="J94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB26280-544F-7C43-929F-D2D3C6BA3672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E603A5-7172-384C-8077-4A27AFF48449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1103,6 +1103,61 @@
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,7 +2449,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2534,11 +2589,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3353999999999999</v>
-    <v>10.119999999999999</v>
-    <v>2.2317999999999998E-2</v>
-    <v>0.12</v>
-    <v>2.589E-4</v>
+    <v>1.3415999999999999</v>
+    <v>5.3150000000000004</v>
+    <v>1.1423000000000001E-2</v>
+    <v>-0.89500000000000002</v>
+    <v>-1.902E-3</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2546,25 +2601,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>465.65</v>
+    <v>472.87</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45103.912886411716</v>
+    <v>45107.998232245314</v>
     <v>0</v>
-    <v>452.82</v>
-    <v>23086523076</v>
+    <v>465.47</v>
+    <v>23436380000</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>455.13</v>
-    <v>18.443000000000001</v>
-    <v>453.45</v>
-    <v>463.57</v>
-    <v>463.69</v>
+    <v>468.4</v>
+    <v>18.924099999999999</v>
+    <v>465.28</v>
+    <v>470.59500000000003</v>
+    <v>469.7</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>786952</v>
-    <v>1479096</v>
+    <v>781732</v>
+    <v>1423771</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3180,10 +3235,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4567,15 +4622,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.2616108028996864</v>
+        <v>2.2958836206896551</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>18.582078573222322</v>
+        <v>18.863674412914275</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>19.732071005128205</v>
+        <v>20.031094017094016</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4814,15 +4869,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.0813670281283807</v>
+        <v>2.1129084024522178</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>18.23580021800948</v>
+        <v>18.51214849921011</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>23.516882016909442</v>
+        <v>23.873260670265864</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5165,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>5.0678917572317073E-2</v>
+        <v>4.9922385624401037E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9431,10 +9486,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="73" t="s">
+      <c r="AC83" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="AD83" s="74"/>
+      <c r="AD83" s="93"/>
     </row>
     <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9501,10 +9556,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="75" t="s">
+      <c r="AC84" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="AD84" s="76"/>
+      <c r="AD84" s="94"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9571,10 +9626,10 @@
         <v>55936000</v>
       </c>
       <c r="V85" s="1"/>
-      <c r="AC85" s="47" t="s">
+      <c r="AC85" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AD85" s="48">
+      <c r="AD85" s="72">
         <f>V17</f>
         <v>4943000</v>
       </c>
@@ -9644,10 +9699,10 @@
         <v>281587000</v>
       </c>
       <c r="V86" s="1"/>
-      <c r="AC86" s="47" t="s">
+      <c r="AC86" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="AD86" s="48">
+      <c r="AD86" s="72">
         <f>V56</f>
         <v>283293000</v>
       </c>
@@ -9719,10 +9774,10 @@
       <c r="V87" s="10">
         <v>1481915000</v>
       </c>
-      <c r="AC87" s="47" t="s">
+      <c r="AC87" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="AD87" s="48">
+      <c r="AD87" s="72">
         <f>V61</f>
         <v>1619883000</v>
       </c>
@@ -9794,10 +9849,10 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="49" t="s">
+      <c r="AC88" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="AD88" s="50">
+      <c r="AD88" s="74">
         <f>AD85/(AD86+AD87)</f>
         <v>2.5972374599091204E-3</v>
       </c>
@@ -9890,10 +9945,10 @@
         <f t="shared" ref="V89" si="21">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
-      <c r="AC89" s="47" t="s">
+      <c r="AC89" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="AD89" s="48">
+      <c r="AD89" s="72">
         <f>V27</f>
         <v>401163000</v>
       </c>
@@ -9973,10 +10028,10 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="47" t="s">
+      <c r="AC90" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="48">
+      <c r="AD90" s="72">
         <f>V25</f>
         <v>1640273000</v>
       </c>
@@ -10048,10 +10103,10 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="49" t="s">
+      <c r="AC91" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="AD91" s="50">
+      <c r="AD91" s="74">
         <f>AD89/AD90</f>
         <v>0.24457087326317023</v>
       </c>
@@ -10123,10 +10178,10 @@
       <c r="V92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC92" s="51" t="s">
+      <c r="AC92" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="AD92" s="52">
+      <c r="AD92" s="74">
         <f>AD88*(1-AD91)</f>
         <v>1.9620288262673291E-3</v>
       </c>
@@ -10199,10 +10254,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="77" t="s">
+      <c r="AC93" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="AD93" s="78"/>
+      <c r="AD93" s="95"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10271,12 +10326,12 @@
       <c r="V94" s="10">
         <v>-314584000</v>
       </c>
-      <c r="AC94" s="47" t="s">
+      <c r="AC94" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="AD94" s="53">
+      <c r="AD94" s="75">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10346,12 +10401,12 @@
       <c r="V95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC95" s="47" t="s">
+      <c r="AC95" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="AD95" s="54" cm="1">
+      <c r="AD95" s="76" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3353999999999999</v>
+        <v>1.3415999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10421,10 +10476,10 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="47" t="s">
+      <c r="AC96" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AD96" s="53">
+      <c r="AD96" s="75">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10495,12 +10550,12 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="51" t="s">
+      <c r="AC97" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AD97" s="52">
+      <c r="AD97" s="74">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9632994000000002E-2</v>
+        <v>9.9529136000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,10 +10625,10 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="77" t="s">
+      <c r="AC98" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="AD98" s="78"/>
+      <c r="AD98" s="95"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10642,10 +10697,10 @@
       <c r="V99" s="1">
         <v>46011000</v>
       </c>
-      <c r="AC99" s="47" t="s">
+      <c r="AC99" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="AD99" s="48">
+      <c r="AD99" s="72">
         <f>AD86+AD87</f>
         <v>1903176000</v>
       </c>
@@ -10717,12 +10772,12 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="49" t="s">
+      <c r="AC100" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="AD100" s="50">
+      <c r="AD100" s="74">
         <f>AD99/AD103</f>
-        <v>7.6158420083889775E-2</v>
+        <v>7.5106919789754797E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10792,12 +10847,12 @@
       <c r="V101" s="1">
         <v>-56000</v>
       </c>
-      <c r="AC101" s="47" t="s">
+      <c r="AC101" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="AD101" s="39" cm="1">
+      <c r="AD101" s="32" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23086523076</v>
+        <v>23436380000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10867,12 +10922,12 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="49" t="s">
+      <c r="AC102" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="AD102" s="50">
+      <c r="AD102" s="74">
         <f>AD101/AD103</f>
-        <v>0.92384157991611027</v>
+        <v>0.92489308021024519</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10942,12 +10997,12 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="51" t="s">
+      <c r="AC103" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="AD103" s="55">
+      <c r="AD103" s="77">
         <f>AD99+AD101</f>
-        <v>24989699076</v>
+        <v>25339556000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11017,10 +11072,10 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="75" t="s">
+      <c r="AC104" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="AD104" s="76"/>
+      <c r="AD104" s="94"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11129,12 +11184,12 @@
       <c r="AB105" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="AC105" s="23" t="s">
+      <c r="AC105" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AD105" s="24">
+      <c r="AD105" s="79">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.21945276042999E-2</v>
+        <v>9.2201171107384058E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11249,10 +11304,10 @@
       <c r="AB106" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="AC106" s="30" t="s">
+      <c r="AC106" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="AD106" s="31">
+      <c r="AD106" s="81">
         <f>(SUM(W4:AA4)/5)</f>
         <v>5.9363782258776567E-2</v>
       </c>
@@ -11330,15 +11385,15 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23753276885.119507</v>
+        <v>23750928637.824932</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="AC107" s="34" t="s">
+      <c r="AC107" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="AD107" s="35">
+      <c r="AD107" s="83">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -11361,102 +11416,102 @@
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25310438074.729012</v>
+        <v>25308089827.434437</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="AC108" s="36" t="s">
+      <c r="AC108" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="AD108" s="37">
+      <c r="AD108" s="81">
         <f>AD105</f>
-        <v>9.21945276042999E-2</v>
+        <v>9.2201171107384058E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="71" t="s">
+      <c r="W109" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="72"/>
+      <c r="X109" s="91"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="38" t="s">
+      <c r="W110" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="39">
+      <c r="X110" s="32">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20613410277.829025</v>
+        <v>20611339296.738289</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="38" t="s">
+      <c r="W111" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="X111" s="39">
+      <c r="X111" s="32">
         <f>V40</f>
         <v>737877000</v>
       </c>
     </row>
     <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="38" t="s">
+      <c r="W112" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="X112" s="39">
+      <c r="X112" s="32">
         <f>AD99</f>
         <v>1903176000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="38" t="s">
+      <c r="W113" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="X113" s="39">
+      <c r="X113" s="32">
         <f>X110+X111-X112</f>
-        <v>19448111277.829025</v>
+        <v>19446040296.738289</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="38" t="s">
+      <c r="W114" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="X114" s="45">
+      <c r="X114" s="85">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="40" t="s">
+      <c r="W115" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="X115" s="41">
+      <c r="X115" s="87">
         <f>X113/X114</f>
-        <v>452.24788423907273</v>
+        <v>452.19972548456934</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="38" t="s">
+      <c r="W116" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="X116" s="56" cm="1">
+      <c r="X116" s="88" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>463.57</v>
+        <v>470.59500000000003</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="42" t="s">
+      <c r="W117" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="X117" s="43">
+      <c r="X117" s="89">
         <f>X115/X116-1</f>
-        <v>-2.4423745628335047E-2</v>
+        <v>-3.9089396435216472E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="42" t="s">
+      <c r="W118" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="X118" s="44" t="str">
+      <c r="X118" s="90" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12614,20 +12669,20 @@
       <c r="B83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="I83" s="73" t="s">
+      <c r="I83" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="J83" s="74"/>
+      <c r="J83" s="99"/>
     </row>
     <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="I84" s="75" t="s">
+      <c r="I84" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="J84" s="76"/>
+      <c r="J84" s="101"/>
     </row>
     <row r="85" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12755,10 +12810,10 @@
         <f>B88</f>
         <v>-312126000</v>
       </c>
-      <c r="I93" s="77" t="s">
+      <c r="I93" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="J93" s="78"/>
+      <c r="J93" s="103"/>
     </row>
     <row r="94" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12772,7 +12827,7 @@
       </c>
       <c r="J94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">
@@ -12826,10 +12881,10 @@
       <c r="B98" s="1">
         <v>0</v>
       </c>
-      <c r="I98" s="77" t="s">
+      <c r="I98" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="J98" s="78"/>
+      <c r="J98" s="103"/>
     </row>
     <row r="99" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12913,10 +12968,10 @@
       <c r="B104" s="11">
         <v>737877000</v>
       </c>
-      <c r="I104" s="75" t="s">
+      <c r="I104" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="J104" s="76"/>
+      <c r="J104" s="101"/>
     </row>
     <row r="105" spans="1:11" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13050,10 +13105,10 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C109" s="71" t="s">
+      <c r="C109" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="72"/>
+      <c r="D109" s="97"/>
     </row>
     <row r="110" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="C110" s="38" t="s">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E603A5-7172-384C-8077-4A27AFF48449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99963FC-FE42-9C4F-8055-69BF79A8E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1233,7 +1233,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ULTA</a:t>
+              <a:t>Ulta Beauty</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1787,7 +1787,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.3653194296342116"/>
-          <c:y val="0.9000876257403424"/>
+          <c:y val="0.90832686736680757"/>
           <c:w val="0.27823225739166713"/>
           <c:h val="5.8698584306973785E-2"/>
         </c:manualLayout>
@@ -1805,7 +1805,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2412,9 +2412,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2423,19 +2421,18 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2446,22 +2443,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8539999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2589,11 +2571,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3415999999999999</v>
-    <v>5.3150000000000004</v>
-    <v>1.1423000000000001E-2</v>
-    <v>-0.89500000000000002</v>
-    <v>-1.902E-3</v>
+    <v>1.3447</v>
+    <v>1.08</v>
+    <v>2.2950000000000002E-3</v>
+    <v>-0.32</v>
+    <v>-6.7849999999999996E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2601,25 +2583,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>472.87</v>
+    <v>475.99990000000003</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45107.998232245314</v>
+    <v>45114.999686238283</v>
     <v>0</v>
-    <v>465.47</v>
-    <v>23436380000</v>
+    <v>468.23</v>
+    <v>23487930000</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>468.4</v>
-    <v>18.924099999999999</v>
-    <v>465.28</v>
-    <v>470.59500000000003</v>
-    <v>469.7</v>
+    <v>471.25</v>
+    <v>19.182400000000001</v>
+    <v>470.55</v>
+    <v>471.63</v>
+    <v>471.31</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>781732</v>
-    <v>1423771</v>
+    <v>530351</v>
+    <v>1036308</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2812,9 +2794,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3235,10 +3217,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4622,15 +4604,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.2958836206896551</v>
+        <v>2.3009335815047023</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>18.863674412914275</v>
+        <v>18.905166418760988</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>20.031094017094016</v>
+        <v>20.075153846153846</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4869,15 +4851,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.1129084024522178</v>
+        <v>2.1175558961413632</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>18.51214849921011</v>
+        <v>18.552867298578199</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>23.873260670265864</v>
+        <v>23.925771620658043</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,7 +5147,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>4.9922385624401037E-2</v>
+        <v>4.9812818754143083E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10331,7 +10313,7 @@
       </c>
       <c r="AD94" s="75">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10406,7 +10388,7 @@
       </c>
       <c r="AD95" s="76" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3415999999999999</v>
+        <v>1.3447</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10555,7 +10537,7 @@
       </c>
       <c r="AD97" s="74">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9529136000000004E-2</v>
+        <v>9.9001344000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10777,7 +10759,7 @@
       </c>
       <c r="AD100" s="74">
         <f>AD99/AD103</f>
-        <v>7.5106919789754797E-2</v>
+        <v>7.4954434832417302E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10852,7 +10834,7 @@
       </c>
       <c r="AD101" s="32" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23436380000</v>
+        <v>23487930000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10927,7 +10909,7 @@
       </c>
       <c r="AD102" s="74">
         <f>AD101/AD103</f>
-        <v>0.92489308021024519</v>
+        <v>0.92504556516758274</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11002,7 +10984,7 @@
       </c>
       <c r="AD103" s="77">
         <f>AD99+AD101</f>
-        <v>25339556000</v>
+        <v>25391106000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11189,7 +11171,7 @@
       </c>
       <c r="AD105" s="79">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.2201171107384058E-2</v>
+        <v>9.1727816974628062E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11385,7 +11367,7 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23750928637.824932</v>
+        <v>23919413098.088058</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
@@ -11416,7 +11398,7 @@
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25308089827.434437</v>
+        <v>25476574287.697563</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
@@ -11426,7 +11408,7 @@
       </c>
       <c r="AD108" s="81">
         <f>AD105</f>
-        <v>9.2201171107384058E-2</v>
+        <v>9.1727816974628062E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11441,7 +11423,7 @@
       </c>
       <c r="X110" s="32">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20611339296.738289</v>
+        <v>20759932194.665657</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11468,7 +11450,7 @@
       </c>
       <c r="X113" s="32">
         <f>X110+X111-X112</f>
-        <v>19446040296.738289</v>
+        <v>19594633194.665657</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11486,7 +11468,7 @@
       </c>
       <c r="X115" s="87">
         <f>X113/X114</f>
-        <v>452.19972548456934</v>
+        <v>455.65511622871907</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11495,7 +11477,7 @@
       </c>
       <c r="X116" s="88" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>470.59500000000003</v>
+        <v>471.63</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11504,7 +11486,7 @@
       </c>
       <c r="X117" s="89">
         <f>X115/X116-1</f>
-        <v>-3.9089396435216472E-2</v>
+        <v>-3.387164466060455E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -12827,7 +12809,7 @@
       </c>
       <c r="J94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99963FC-FE42-9C4F-8055-69BF79A8E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD3D2C-F1A0-7E45-9BE5-C44FC914F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,6 +2423,10 @@
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
@@ -2444,6 +2448,10 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2572,10 +2580,8 @@
     <v>556.6</v>
     <v>360.58</v>
     <v>1.3447</v>
-    <v>1.08</v>
-    <v>2.2950000000000002E-3</v>
-    <v>-0.32</v>
-    <v>-6.7849999999999996E-4</v>
+    <v>6.37</v>
+    <v>1.3506000000000001E-2</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2583,25 +2589,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>475.99990000000003</v>
+    <v>478.95499999999998</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45114.999686238283</v>
+    <v>45117.993699015627</v>
     <v>0</v>
-    <v>468.23</v>
-    <v>23487930000</v>
+    <v>473.13</v>
+    <v>23805160020</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>471.25</v>
-    <v>19.182400000000001</v>
-    <v>470.55</v>
+    <v>473.43</v>
+    <v>19.441500000000001</v>
     <v>471.63</v>
-    <v>471.31</v>
+    <v>478</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>530351</v>
-    <v>1036308</v>
+    <v>571685</v>
+    <v>963656</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2652,8 +2657,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2674,7 +2677,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2700,7 +2702,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2711,16 +2713,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2786,19 +2785,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2843,9 +2836,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2853,9 +2843,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3217,10 +3204,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
+      <selection pane="bottomRight" activeCell="AA102" sqref="AA102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3463,19 +3450,19 @@
         <v>10208000000</v>
       </c>
       <c r="W3" s="26">
-        <v>11092000000</v>
+        <v>11093000000</v>
       </c>
       <c r="X3" s="26">
         <v>11653000000</v>
       </c>
       <c r="Y3" s="26">
-        <v>12390000000</v>
+        <v>12397000000</v>
       </c>
       <c r="Z3" s="26">
-        <v>12944000000</v>
+        <v>13002000000</v>
       </c>
       <c r="AA3" s="26">
-        <v>13613000000</v>
+        <v>13675000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>108</v>
@@ -3508,92 +3495,92 @@
         <v>0.1790138287129035</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>0.30399861848637921</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.20795298187158751</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.18912098019933321</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.12734569619949743</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.18978778528440721</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.22085826738097292</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>0.25003786277180273</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>0.20282210700027381</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>0.2137354043495534</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>0.21063538276573879</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>0.23715430430700835</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>0.21211633091555737</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>0.14140677229320531</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>0.10145780277714289</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>-0.16843789486660576</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>0.40295106285759985</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>0.18272868530692499</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>8.6598746081504752E-2</v>
+        <f t="shared" ref="W4:AA4" si="1">(W3/V3)-1</f>
+        <v>8.6696708463949834E-2</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>5.0576992426974332E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0482286126386056E-2</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>6.3245516176092087E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3846219857547348E-2</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
-        <v>4.4713478611783763E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8802129547471207E-2</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
-        <v>5.1684177997527891E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1761267497308028E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3930,83 +3917,83 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:V9" si="2">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="15"/>
@@ -4274,83 +4261,83 @@
         <v>0.23848135233851531</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:V13" si="3">C12/C3</f>
         <v>0.23225900821727774</v>
       </c>
       <c r="D13" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2501523982213012</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25836662857082315</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25974602610780573</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25965430195658307</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24934840620197896</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25102520005663859</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23120669357503951</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22019082484182004</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22331911541081259</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21966212424441647</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22001235437484518</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22119303270187449</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21874937335436484</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22860682054874368</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23799673103842786</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25731942360417903</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23885662299677357</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23464919670846396</v>
       </c>
       <c r="W13" s="15"/>
@@ -4604,15 +4591,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.3009335815047023</v>
+        <v>2.332010190047022</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>18.905166418760988</v>
+        <v>19.160501236308846</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>20.075153846153846</v>
+        <v>20.346290615384614</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4831,19 +4818,19 @@
         <v>1751060000</v>
       </c>
       <c r="W19" s="59">
-        <v>1927000000</v>
+        <v>1878000000</v>
       </c>
       <c r="X19" s="59">
-        <v>1997000000</v>
+        <v>1947000000</v>
       </c>
       <c r="Y19" s="59">
-        <v>2158000000</v>
+        <v>2096000000</v>
       </c>
       <c r="Z19" s="59">
-        <v>2301000000</v>
+        <v>2281000000</v>
       </c>
       <c r="AA19" s="59">
-        <v>2440000000</v>
+        <v>2420000000</v>
       </c>
       <c r="AB19" s="46">
         <f>V40-V56-V61</f>
@@ -4851,15 +4838,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.1175558961413632</v>
+        <v>2.1459623203822229</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>18.552867298578199</v>
+        <v>18.98338119617225</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>23.925771620658043</v>
+        <v>24.345633074248312</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,92 +4867,92 @@
         <v>4.1541226215644818</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="4">(F19/E19)-1</f>
         <v>0.36408384265146232</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22811607277101187</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19666511593741576</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3332412579542896</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4105387549014341</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4803938635621805</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35309011266839629</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17896260567989541</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25307124741135256</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23836923931047282</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28690293810270306</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20099342599310877</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8482432717982293E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5200170678007865E-2</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.56652317482940484</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9871158161958395</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12058803578079469</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
-        <v>0.10047628293719235</v>
+        <f t="shared" ref="W20" si="5">(W19/V19)-1</f>
+        <v>7.2493232670496788E-2</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
-        <v>3.6325895173845435E-2</v>
+        <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
+        <v>3.6741214057508076E-2</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
-        <v>8.0620931397095585E-2</v>
+        <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
+        <v>7.6527991782229021E-2</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
-        <v>6.6265060240963791E-2</v>
+        <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
+        <v>8.82633587786259E-2</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
-        <v>6.0408518035636627E-2</v>
+        <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
+        <v>6.0938185006575996E-2</v>
       </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
@@ -5049,23 +5036,23 @@
       </c>
       <c r="W21" s="60">
         <f>W19/W3</f>
-        <v>0.17372881355932204</v>
+        <v>0.16929595240241593</v>
       </c>
       <c r="X21" s="60">
-        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
-        <v>0.17137217883806746</v>
+        <f t="shared" ref="X21:AA21" si="10">X19/X3</f>
+        <v>0.16708143825624303</v>
       </c>
       <c r="Y21" s="60">
-        <f t="shared" si="9"/>
-        <v>0.17417271993543179</v>
+        <f t="shared" si="10"/>
+        <v>0.16907316286198273</v>
       </c>
       <c r="Z21" s="60">
-        <f t="shared" si="9"/>
-        <v>0.17776576019777504</v>
+        <f t="shared" si="10"/>
+        <v>0.17543454853099524</v>
       </c>
       <c r="AA21" s="60">
-        <f t="shared" si="9"/>
-        <v>0.17924043194005729</v>
+        <f t="shared" si="10"/>
+        <v>0.1769652650822669</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>165</v>
@@ -5147,7 +5134,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>4.9812818754143083E-2</v>
+        <v>4.9149007988899041E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5560,19 +5547,19 @@
         <v>1242408000</v>
       </c>
       <c r="W28" s="61">
-        <v>1266000000</v>
+        <v>1254000000</v>
       </c>
       <c r="X28" s="61">
-        <v>1318000000</v>
+        <v>1301000000</v>
       </c>
       <c r="Y28" s="61">
-        <v>1411000000</v>
+        <v>1385000000</v>
       </c>
       <c r="Z28" s="61">
-        <v>1456000000</v>
+        <v>1450000000</v>
       </c>
       <c r="AA28" s="61">
-        <v>1540000000</v>
+        <v>1535000000</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5593,92 +5580,92 @@
         <v>0.68805496828752633</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="11">(F28/E28)-1</f>
         <v>0.41167261569290492</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12385219358559207</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.6445628577067559E-3</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55754313756529994</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.80480739912592747</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.69314374208081087</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.43475187919909541</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17560229268207861</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26761778465755315</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24451358235946108</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28046798830029251</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35502245216712214</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18609271046081477</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1954069415192778E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.7509225222928132</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6066027810162939</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26025702017676355</v>
       </c>
       <c r="W29" s="16">
-        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
-        <v>1.8988931172368551E-2</v>
+        <f t="shared" ref="W29" si="12">(W28/V28)-1</f>
+        <v>9.3302683176541557E-3</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
-        <v>4.1074249605055346E-2</v>
+        <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
+        <v>3.7480063795853225E-2</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
-        <v>7.0561456752655571E-2</v>
+        <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
+        <v>6.4565718677940032E-2</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
-        <v>3.1892274982282087E-2</v>
+        <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
+        <v>4.6931407942238268E-2</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
-        <v>5.7692307692307709E-2</v>
+        <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
+        <v>5.862068965517242E-2</v>
       </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
@@ -5761,24 +5748,24 @@
         <v>0.12170924764890283</v>
       </c>
       <c r="W30" s="62">
-        <f t="shared" ref="W30:AA30" si="16">W28/W3</f>
-        <v>0.1141363144608727</v>
+        <f t="shared" ref="W30:AA30" si="17">W28/W3</f>
+        <v>0.1130442621473001</v>
       </c>
       <c r="X30" s="62">
-        <f t="shared" si="16"/>
-        <v>0.11310392173689179</v>
+        <f t="shared" si="17"/>
+        <v>0.11164506993907149</v>
       </c>
       <c r="Y30" s="62">
-        <f t="shared" si="16"/>
-        <v>0.11388216303470541</v>
+        <f t="shared" si="17"/>
+        <v>0.11172057755908688</v>
       </c>
       <c r="Z30" s="62">
-        <f t="shared" si="16"/>
-        <v>0.11248454882571075</v>
+        <f t="shared" si="17"/>
+        <v>0.11152130441470542</v>
       </c>
       <c r="AA30" s="62">
-        <f t="shared" si="16"/>
-        <v>0.11312715786380666</v>
+        <f t="shared" si="17"/>
+        <v>0.11224862888482633</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5849,19 +5836,19 @@
         <v>24.1</v>
       </c>
       <c r="W31" s="63">
-        <v>25.27</v>
+        <v>25.18</v>
       </c>
       <c r="X31" s="63">
-        <v>26.32</v>
+        <v>26.12</v>
       </c>
       <c r="Y31" s="63">
-        <v>28.17</v>
+        <v>27.81</v>
       </c>
       <c r="Z31" s="63">
-        <v>29.07</v>
+        <v>29.12</v>
       </c>
       <c r="AA31" s="63">
-        <v>30.74</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6078,79 +6065,79 @@
         <v>-0.41149604975244208</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="18">(D34-C34)/C34</f>
         <v>0.36448348348348347</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.153138815152182</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.577741749148896E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.7555769637838922E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.10646801643743081</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.578832228195431E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4623630501207016E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.338337031719097E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6768244544794267E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0093794645630162E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.947518654690433E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5.8158419823359266E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.2154803578374172E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.3937725732287473E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.8947156111335217E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.4495937255944568E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.6624214783581446E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.0358216344283744E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5.2223701245418572E-2</v>
       </c>
       <c r="W35" s="22"/>
@@ -9167,87 +9154,87 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:U80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:U80" si="19">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.5744381116050768E-3</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.865179170915895E-3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.6675203699655909E-3</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.5337913274265535E-3</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.0240801060778577E-3</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9923469607458778E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.6039188996994792E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.973888641416309E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.9837379450215326E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1463123667475231E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.9656880735310868E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.3853433085502863E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.4836168286721302E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.475565726775075E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" ref="V80" si="19">V79/V3</f>
+        <f t="shared" ref="V80" si="20">V79/V3</f>
         <v>4.2166927899686523E-3</v>
       </c>
       <c r="W80" s="15"/>
@@ -9844,87 +9831,87 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:U89" si="20">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:U89" si="21">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.1850796528947034E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.2545261437692113E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.11167790944601767</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.1022112283639086</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.5697264655442433E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.6753136775366054E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.2424022507095398E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.4935250709828061E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.4635020274675135E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.6840063565734112E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.6238062279504484E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.6986044764113901E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4893967310085158E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7553715673743398E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9950088571409039E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" ref="V89" si="21">(-1*V88)/V3</f>
+        <f t="shared" ref="V89" si="22">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
       <c r="AC89" s="71" t="s">
@@ -10759,7 +10746,7 @@
       </c>
       <c r="AD100" s="74">
         <f>AD99/AD103</f>
-        <v>7.4954434832417302E-2</v>
+        <v>7.4029528730269023E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10834,7 +10821,7 @@
       </c>
       <c r="AD101" s="32" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23487930000</v>
+        <v>23805160020</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10909,7 +10896,7 @@
       </c>
       <c r="AD102" s="74">
         <f>AD101/AD103</f>
-        <v>0.92504556516758274</v>
+        <v>0.92597047126973098</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10984,7 +10971,7 @@
       </c>
       <c r="AD103" s="77">
         <f>AD99+AD101</f>
-        <v>25391106000</v>
+        <v>25708336020</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11064,79 +11051,79 @@
         <v>161</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="22">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:U105" si="23">(C22*(1-$AD$91))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3804746.6251044795</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4978642.8326260298</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-42619595.769728571</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-50903876.002958044</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>108285761.27449515</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>90469436.302981257</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>122341417.52013233</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>113600536.04552412</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>135926516.76946461</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>175021445.04969603</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>123574500.57947671</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>299453122.48631787</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>371827694.36429179</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>559763908.56339157</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>760842653.52779698</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>462414725.79381603</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>578224248.50802279</v>
       </c>
       <c r="V105" s="1">
@@ -11145,23 +11132,23 @@
       </c>
       <c r="W105" s="28">
         <f>V105*(1+$AD$106)</f>
-        <v>1236383175.0954633</v>
+        <v>1237496518.2500589</v>
       </c>
       <c r="X105" s="28">
-        <f t="shared" ref="X105:AA105" si="23">W105*(1+$AD$106)</f>
-        <v>1309779556.6902452</v>
+        <f t="shared" ref="X105:AA105" si="24">W105*(1+$AD$106)</f>
+        <v>1312139489.5832667</v>
       </c>
       <c r="Y105" s="28">
-        <f t="shared" si="23"/>
-        <v>1387533025.1006017</v>
+        <f t="shared" si="24"/>
+        <v>1391284754.9328885</v>
       </c>
       <c r="Z105" s="28">
-        <f t="shared" si="23"/>
-        <v>1469902233.4795353</v>
+        <f t="shared" si="24"/>
+        <v>1475203882.4191122</v>
       </c>
       <c r="AA105" s="28">
-        <f t="shared" si="23"/>
-        <v>1557161189.6095037</v>
+        <f t="shared" si="24"/>
+        <v>1564184820.5325851</v>
       </c>
       <c r="AB105" s="29" t="s">
         <v>163</v>
@@ -11171,7 +11158,7 @@
       </c>
       <c r="AD105" s="79">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1727816974628062E-2</v>
+        <v>9.1817569229380544E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11189,99 +11176,99 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:V106" si="24">(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="25">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.67274088866699944</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.2017609312042978</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.35116448326055316</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3.9366797532249018</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.24153473004717252</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.16144180893387716</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.45341513913128317</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0169565476072426</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.45057570722018458</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.48004067107269954</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.40174951438591</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2978255371007672</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.88018083460307328</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.26075853544768801</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.17971769858699804</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.34714171383272907</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.31893700441223882</v>
       </c>
       <c r="W106" s="67">
-        <v>981700000</v>
+        <v>977800000</v>
       </c>
       <c r="X106" s="67">
-        <v>1053000000</v>
+        <v>1050000000</v>
       </c>
       <c r="Y106" s="67">
         <v>1138000000</v>
       </c>
       <c r="Z106" s="67">
-        <v>1324000000</v>
+        <v>1283000000</v>
       </c>
       <c r="AA106" s="67">
-        <v>1403000000</v>
+        <v>1364000000</v>
       </c>
       <c r="AB106" s="29" t="s">
         <v>164</v>
@@ -11291,7 +11278,7 @@
       </c>
       <c r="AD106" s="81">
         <f>(SUM(W4:AA4)/5)</f>
-        <v>5.9363782258776567E-2</v>
+        <v>6.0317722298532495E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11367,7 +11354,7 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23919413098.088058</v>
+        <v>23995027947.543365</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
@@ -11381,24 +11368,24 @@
     </row>
     <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="W108" s="32">
-        <f t="shared" ref="W108:Z108" si="25">W107+W105</f>
-        <v>1236383175.0954633</v>
+        <f t="shared" ref="W108:Z108" si="26">W107+W105</f>
+        <v>1237496518.2500589</v>
       </c>
       <c r="X108" s="32">
-        <f t="shared" si="25"/>
-        <v>1309779556.6902452</v>
+        <f t="shared" si="26"/>
+        <v>1312139489.5832667</v>
       </c>
       <c r="Y108" s="32">
-        <f t="shared" si="25"/>
-        <v>1387533025.1006017</v>
+        <f t="shared" si="26"/>
+        <v>1391284754.9328885</v>
       </c>
       <c r="Z108" s="32">
-        <f t="shared" si="25"/>
-        <v>1469902233.4795353</v>
+        <f t="shared" si="26"/>
+        <v>1475203882.4191122</v>
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25476574287.697563</v>
+        <v>25559212768.075951</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
@@ -11408,7 +11395,7 @@
       </c>
       <c r="AD108" s="81">
         <f>AD105</f>
-        <v>9.1727816974628062E-2</v>
+        <v>9.1817569229380544E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11423,7 +11410,7 @@
       </c>
       <c r="X110" s="32">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20759932194.665657</v>
+        <v>20815181000.610054</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11450,7 +11437,7 @@
       </c>
       <c r="X113" s="32">
         <f>X110+X111-X112</f>
-        <v>19594633194.665657</v>
+        <v>19649882000.610054</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11468,7 +11455,7 @@
       </c>
       <c r="X115" s="87">
         <f>X113/X114</f>
-        <v>455.65511622871907</v>
+        <v>456.93987623642084</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11477,7 +11464,7 @@
       </c>
       <c r="X116" s="88" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>471.63</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11486,7 +11473,7 @@
       </c>
       <c r="X117" s="89">
         <f>X115/X116-1</f>
-        <v>-3.387164466060455E-2</v>
+        <v>-4.4058836325479356E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD3D2C-F1A0-7E45-9BE5-C44FC914F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58816060-0869-F245-9F48-55E45FEDE832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2422,6 +2422,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2433,7 +2434,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2452,6 +2453,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2579,9 +2581,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>360.58</v>
-    <v>1.3447</v>
-    <v>6.37</v>
-    <v>1.3506000000000001E-2</v>
+    <v>1.3423</v>
+    <v>-3.03</v>
+    <v>-6.6639999999999998E-3</v>
+    <v>-0.09</v>
+    <v>-1.9929999999999999E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2589,24 +2593,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>478.95499999999998</v>
+    <v>456.58</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45117.993699015627</v>
+    <v>45132.961659409375</v>
     <v>0</v>
-    <v>473.13</v>
-    <v>23805160020</v>
+    <v>447</v>
+    <v>22492390107</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>473.43</v>
-    <v>19.441500000000001</v>
-    <v>471.63</v>
-    <v>478</v>
+    <v>453.54</v>
+    <v>18.492599999999999</v>
+    <v>454.67</v>
+    <v>451.64</v>
+    <v>451.55</v>
     <v>49801590</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>571685</v>
-    <v>963656</v>
+    <v>1115377</v>
+    <v>737335</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2657,6 +2662,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2677,6 +2684,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2702,7 +2710,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2713,13 +2721,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2785,13 +2796,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2836,6 +2853,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2843,6 +2863,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3207,7 +3230,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA102" sqref="AA102"/>
+      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4591,15 +4614,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD101/V3</f>
-        <v>2.332010190047022</v>
+        <v>2.2034081217672412</v>
       </c>
       <c r="AD16" s="64">
         <f>AD101/V28</f>
-        <v>19.160501236308846</v>
+        <v>18.103867736685533</v>
       </c>
       <c r="AE16" s="65">
         <f>AD101/V107</f>
-        <v>20.346290615384614</v>
+        <v>19.22426504871795</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4838,15 +4861,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD101/W3</f>
-        <v>2.1459623203822229</v>
+        <v>2.0276201304426213</v>
       </c>
       <c r="AD19" s="66">
         <f>AD101/W28</f>
-        <v>18.98338119617225</v>
+        <v>17.936515236842105</v>
       </c>
       <c r="AE19" s="65">
         <f>AD101/W106</f>
-        <v>24.345633074248312</v>
+        <v>23.003057994477398</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5157,7 @@
       </c>
       <c r="AE22" s="70">
         <f>V107/AD101</f>
-        <v>4.9149007988899041E-2</v>
+        <v>5.2017593258614027E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10300,7 +10323,7 @@
       </c>
       <c r="AD94" s="75">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10375,7 +10398,7 @@
       </c>
       <c r="AD95" s="76" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3447</v>
+        <v>1.3423</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10524,7 +10547,7 @@
       </c>
       <c r="AD97" s="74">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9001344000000005E-2</v>
+        <v>9.9362424000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10746,7 +10769,7 @@
       </c>
       <c r="AD100" s="74">
         <f>AD99/AD103</f>
-        <v>7.4029528730269023E-2</v>
+        <v>7.8013192711027426E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10821,7 +10844,7 @@
       </c>
       <c r="AD101" s="32" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23805160020</v>
+        <v>22492390107</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10896,7 +10919,7 @@
       </c>
       <c r="AD102" s="74">
         <f>AD101/AD103</f>
-        <v>0.92597047126973098</v>
+        <v>0.92198680728897253</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10971,7 +10994,7 @@
       </c>
       <c r="AD103" s="77">
         <f>AD99+AD101</f>
-        <v>25708336020</v>
+        <v>24395566107</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11158,7 +11181,7 @@
       </c>
       <c r="AD105" s="79">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1817569229380544E-2</v>
+        <v>9.1763908201181368E-2</v>
       </c>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
@@ -11354,7 +11377,7 @@
       <c r="Z107" s="29"/>
       <c r="AA107" s="32">
         <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>23995027947.543365</v>
+        <v>24014313784.847157</v>
       </c>
       <c r="AB107" s="33" t="s">
         <v>145</v>
@@ -11385,7 +11408,7 @@
       </c>
       <c r="AA108" s="32">
         <f>AA107+AA105</f>
-        <v>25559212768.075951</v>
+        <v>25578498605.379742</v>
       </c>
       <c r="AB108" s="33" t="s">
         <v>142</v>
@@ -11395,7 +11418,7 @@
       </c>
       <c r="AD108" s="81">
         <f>AD105</f>
-        <v>9.1817569229380544E-2</v>
+        <v>9.1763908201181368E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11410,7 +11433,7 @@
       </c>
       <c r="X110" s="32">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20815181000.610054</v>
+        <v>20832189128.661263</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11437,7 +11460,7 @@
       </c>
       <c r="X113" s="32">
         <f>X110+X111-X112</f>
-        <v>19649882000.610054</v>
+        <v>19666890128.661263</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11455,7 +11478,7 @@
       </c>
       <c r="X115" s="87">
         <f>X113/X114</f>
-        <v>456.93987623642084</v>
+        <v>457.33538456194111</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11464,7 +11487,7 @@
       </c>
       <c r="X116" s="88" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>478</v>
+        <v>451.64</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11473,7 +11496,7 @@
       </c>
       <c r="X117" s="89">
         <f>X115/X116-1</f>
-        <v>-4.4058836325479356E-2</v>
+        <v>1.2610452045746845E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11482,7 +11505,7 @@
       </c>
       <c r="X118" s="90" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -12796,7 +12819,7 @@
       </c>
       <c r="J94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58816060-0869-F245-9F48-55E45FEDE832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72748C00-2B8A-6E4B-BEB9-3216F79730BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="171">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -615,6 +615,18 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Revenue CAGR</t>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -741,6 +753,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -968,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1107,57 +1126,120 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1235,7 +1317,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Ulta Beauty</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1272,15 +1353,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3024905370712457E-2"/>
-          <c:y val="0.12869003410743282"/>
-          <c:w val="0.87202234185615335"/>
-          <c:h val="0.69944652191551782"/>
+          <c:x val="9.37615894039735E-2"/>
+          <c:y val="0.15621070450936791"/>
+          <c:w val="0.84796026490066234"/>
+          <c:h val="0.63804395461702024"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1329,12 +1410,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$V$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>362217000</c:v>
                 </c:pt>
@@ -1397,13 +1565,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10208000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11147000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11699000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12386000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12902000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13647000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-74B6-0D47-A6A8-5337DC14D959}"/>
+              <c16:uniqueId val="{00000000-5469-2F48-AE90-6CFDFE128092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1412,11 +1595,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1454,81 +1637,183 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$V$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>23421000</c:v>
+                  <c:v>9696000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23518000</c:v>
+                  <c:v>5084000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9460000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48758000</c:v>
+                  <c:v>15969000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66510000</c:v>
+                  <c:v>22543000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81682000</c:v>
+                  <c:v>25335000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97746000</c:v>
+                  <c:v>25268000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130319000</c:v>
+                  <c:v>39356000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183820000</c:v>
+                  <c:v>71030000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272126000</c:v>
+                  <c:v>120264000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>368211000</c:v>
+                  <c:v>172549000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>434107000</c:v>
+                  <c:v>202849000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>543967000</c:v>
+                  <c:v>257135000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>673632000</c:v>
+                  <c:v>320008000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>866899000</c:v>
+                  <c:v>409760000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1041140000</c:v>
+                  <c:v>555234000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1143674000</c:v>
+                  <c:v>658559000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1206805000</c:v>
+                  <c:v>705945000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>523122000</c:v>
+                  <c:v>175835000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1562626000</c:v>
+                  <c:v>985837000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1751060000</c:v>
+                  <c:v>1242408000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1254000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1301000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1385000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1450000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1535000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-74B6-0D47-A6A8-5337DC14D959}"/>
+              <c16:uniqueId val="{00000001-5469-2F48-AE90-6CFDFE128092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1579,12 +1864,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1647,13 +2019,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1170000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>981600000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1074000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1143000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1271000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1346000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-74B6-0D47-A6A8-5337DC14D959}"/>
+              <c16:uniqueId val="{00000002-5469-2F48-AE90-6CFDFE128092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1665,13 +2052,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="641088175"/>
-        <c:axId val="641670895"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="863348719"/>
+        <c:axId val="890455295"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641088175"/>
+        <c:axId val="863348719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +2086,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1711,7 +2098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641670895"/>
+        <c:crossAx val="890455295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641670895"/>
+        <c:axId val="890455295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1768,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641088175"/>
+        <c:crossAx val="863348719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,10 +2173,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3653194296342116"/>
-          <c:y val="0.90832686736680757"/>
-          <c:w val="0.27823225739166713"/>
-          <c:h val="5.8698584306973785E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.89845090432738528"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.2140223974151983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1896,7 +2283,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2134,7 +2521,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2369,22 +2755,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>11288</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF30C88-2D7C-472C-DAE7-FBDEEDD93041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC39C74-35B4-4BBB-8E1E-5994A57D2A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,38 +2798,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2580,12 +2966,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
-    <v>360.58</v>
-    <v>1.3423</v>
-    <v>-3.03</v>
-    <v>-6.6639999999999998E-3</v>
-    <v>-0.09</v>
-    <v>-1.9929999999999999E-4</v>
+    <v>369.84</v>
+    <v>1.3624000000000001</v>
+    <v>0.36</v>
+    <v>9.6640000000000007E-4</v>
+    <v>-0.21</v>
+    <v>-5.6320000000000003E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2593,25 +2979,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>456.58</v>
+    <v>378.935</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45132.961659409375</v>
+    <v>45218.99921012656</v>
     <v>0</v>
-    <v>447</v>
-    <v>22492390107</v>
+    <v>369.84</v>
+    <v>18355394439</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>453.54</v>
-    <v>18.492599999999999</v>
-    <v>454.67</v>
-    <v>451.64</v>
-    <v>451.55</v>
-    <v>49801590</v>
+    <v>371.66</v>
+    <v>14.954000000000001</v>
+    <v>372.5</v>
+    <v>372.86</v>
+    <v>372.65</v>
+    <v>49228650</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>1115377</v>
-    <v>737335</v>
+    <v>766108</v>
+    <v>766751</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3224,13 +3610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM118"/>
+  <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
+      <selection pane="bottomRight" activeCell="U111" sqref="U111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3707,7 @@
         <v>2027</v>
       </c>
       <c r="AA1" s="25">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -3473,19 +3859,19 @@
         <v>10208000000</v>
       </c>
       <c r="W3" s="26">
-        <v>11093000000</v>
+        <v>11147000000</v>
       </c>
       <c r="X3" s="26">
-        <v>11653000000</v>
+        <v>11699000000</v>
       </c>
       <c r="Y3" s="26">
-        <v>12397000000</v>
+        <v>12386000000</v>
       </c>
       <c r="Z3" s="26">
-        <v>13002000000</v>
+        <v>12902000000</v>
       </c>
       <c r="AA3" s="26">
-        <v>13675000000</v>
+        <v>13647000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>108</v>
@@ -3587,23 +3973,23 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" ref="W4:AA4" si="1">(W3/V3)-1</f>
-        <v>8.6696708463949834E-2</v>
+        <v>9.1986677115987403E-2</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="1"/>
-        <v>5.0482286126386056E-2</v>
+        <v>4.9520050237732205E-2</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="1"/>
-        <v>6.3846219857547348E-2</v>
+        <v>5.8722967775023616E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="1"/>
-        <v>4.8802129547471207E-2</v>
+        <v>4.1659938640400407E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="1"/>
-        <v>5.1761267497308028E-2</v>
+        <v>5.7742985583630446E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3765,16 +4151,20 @@
       <c r="V6" s="10">
         <v>4044510000</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="W6" s="59">
+        <f>W3*W7</f>
+        <v>4378541600</v>
+      </c>
+      <c r="AB6" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="84" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3846,21 +4236,24 @@
         <f>V6/V3</f>
         <v>0.39620983542319749</v>
       </c>
+      <c r="W7" s="2">
+        <v>0.39279999999999998</v>
+      </c>
       <c r="AB7" s="17">
-        <f>V7</f>
-        <v>0.39620983542319749</v>
+        <f>W7</f>
+        <v>0.39279999999999998</v>
       </c>
       <c r="AC7" s="20">
-        <f>V21</f>
-        <v>0.17153800940438871</v>
+        <f>W21</f>
+        <v>0.16847582309141473</v>
       </c>
       <c r="AD7" s="20">
-        <f>V30</f>
-        <v>0.12170924764890283</v>
+        <f>W30</f>
+        <v>0.11249663586615233</v>
       </c>
       <c r="AE7" s="20">
-        <f>V107/V3</f>
-        <v>0.11461598746081504</v>
+        <f>W107/W3</f>
+        <v>8.805956759666278E-2</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4613,16 +5006,16 @@
         <v>-3.4529845148112706E-2</v>
       </c>
       <c r="AC16" s="64">
-        <f>AD101/V3</f>
-        <v>2.2034081217672412</v>
+        <f>AD102/V3</f>
+        <v>1.7981381699647336</v>
       </c>
       <c r="AD16" s="64">
-        <f>AD101/V28</f>
-        <v>18.103867736685533</v>
+        <f>AD102/V28</f>
+        <v>14.774047204300036</v>
       </c>
       <c r="AE16" s="65">
-        <f>AD101/V107</f>
-        <v>19.22426504871795</v>
+        <f>AD102/V107</f>
+        <v>15.688371315384616</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4860,16 +5253,16 @@
         <v>-1165299000</v>
       </c>
       <c r="AC19" s="64">
-        <f>AD101/W3</f>
-        <v>2.0276201304426213</v>
+        <f>AD102/W3</f>
+        <v>1.6466667658562841</v>
       </c>
       <c r="AD19" s="66">
-        <f>AD101/W28</f>
-        <v>17.936515236842105</v>
+        <f>AD102/W28</f>
+        <v>14.637475629186603</v>
       </c>
       <c r="AE19" s="65">
-        <f>AD101/W106</f>
-        <v>23.003057994477398</v>
+        <f>AD102/W107</f>
+        <v>18.699464587408311</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,29 +5452,32 @@
       </c>
       <c r="W21" s="60">
         <f>W19/W3</f>
-        <v>0.16929595240241593</v>
+        <v>0.16847582309141473</v>
       </c>
       <c r="X21" s="60">
         <f t="shared" ref="X21:AA21" si="10">X19/X3</f>
-        <v>0.16708143825624303</v>
+        <v>0.16642448072484828</v>
       </c>
       <c r="Y21" s="60">
         <f t="shared" si="10"/>
-        <v>0.16907316286198273</v>
+        <v>0.16922331664782819</v>
       </c>
       <c r="Z21" s="60">
         <f t="shared" si="10"/>
-        <v>0.17543454853099524</v>
+        <v>0.17679429545806852</v>
       </c>
       <c r="AA21" s="60">
         <f t="shared" si="10"/>
-        <v>0.1769652650822669</v>
+        <v>0.17732835055323515</v>
+      </c>
+      <c r="AC21" s="76" t="s">
+        <v>169</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>165</v>
       </c>
       <c r="AE21" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5151,13 +5547,17 @@
       <c r="V22" s="57">
         <v>1638610000</v>
       </c>
+      <c r="AC22" s="17">
+        <f>SUM(W29:AA29)/5</f>
+        <v>4.3385629677771619E-2</v>
+      </c>
       <c r="AD22" s="69">
-        <f>(-1*V98)/AD101</f>
+        <f>(-1*V98)/AD102</f>
         <v>0</v>
       </c>
       <c r="AE22" s="70">
-        <f>V107/AD101</f>
-        <v>5.2017593258614027E-2</v>
+        <f>W107/AD102</f>
+        <v>5.3477466979101183E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5772,23 +6172,23 @@
       </c>
       <c r="W30" s="62">
         <f t="shared" ref="W30:AA30" si="17">W28/W3</f>
-        <v>0.1130442621473001</v>
+        <v>0.11249663586615233</v>
       </c>
       <c r="X30" s="62">
         <f t="shared" si="17"/>
-        <v>0.11164506993907149</v>
+        <v>0.11120608599025558</v>
       </c>
       <c r="Y30" s="62">
         <f t="shared" si="17"/>
-        <v>0.11172057755908688</v>
+        <v>0.11181979654448571</v>
       </c>
       <c r="Z30" s="62">
         <f t="shared" si="17"/>
-        <v>0.11152130441470542</v>
+        <v>0.11238567663928073</v>
       </c>
       <c r="AA30" s="62">
         <f t="shared" si="17"/>
-        <v>0.11224862888482633</v>
+        <v>0.11247893309884957</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9411,7 +9811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -9478,10 +9878,6 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD83" s="93"/>
     </row>
     <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9548,12 +9944,18 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD84" s="94"/>
-    </row>
-    <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="W84" s="77"/>
+      <c r="X84" s="77"/>
+      <c r="Y84" s="77"/>
+      <c r="Z84" s="77"/>
+      <c r="AA84" s="77"/>
+      <c r="AB84" s="77"/>
+      <c r="AC84" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD84" s="107"/>
+    </row>
+    <row r="85" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -9618,13 +10020,16 @@
         <v>55936000</v>
       </c>
       <c r="V85" s="1"/>
-      <c r="AC85" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD85" s="72">
-        <f>V17</f>
-        <v>4943000</v>
-      </c>
+      <c r="W85" s="77"/>
+      <c r="X85" s="77"/>
+      <c r="Y85" s="77"/>
+      <c r="Z85" s="77"/>
+      <c r="AA85" s="77"/>
+      <c r="AB85" s="77"/>
+      <c r="AC85" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD85" s="108"/>
     </row>
     <row r="86" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9691,12 +10096,18 @@
         <v>281587000</v>
       </c>
       <c r="V86" s="1"/>
+      <c r="W86" s="77"/>
+      <c r="X86" s="77"/>
+      <c r="Y86" s="77"/>
+      <c r="Z86" s="77"/>
+      <c r="AA86" s="77"/>
+      <c r="AB86" s="77"/>
       <c r="AC86" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD86" s="72">
-        <f>V56</f>
-        <v>283293000</v>
+        <v>126</v>
+      </c>
+      <c r="AD86" s="88">
+        <f>V17</f>
+        <v>4943000</v>
       </c>
     </row>
     <row r="87" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -9766,12 +10177,18 @@
       <c r="V87" s="10">
         <v>1481915000</v>
       </c>
+      <c r="W87" s="77"/>
+      <c r="X87" s="77"/>
+      <c r="Y87" s="77"/>
+      <c r="Z87" s="77"/>
+      <c r="AA87" s="77"/>
+      <c r="AB87" s="77"/>
       <c r="AC87" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD87" s="72">
-        <f>V61</f>
-        <v>1619883000</v>
+        <v>127</v>
+      </c>
+      <c r="AD87" s="88">
+        <f>V56</f>
+        <v>283293000</v>
       </c>
     </row>
     <row r="88" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -9841,12 +10258,18 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD88" s="74">
-        <f>AD85/(AD86+AD87)</f>
-        <v>2.5972374599091204E-3</v>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+      <c r="Y88" s="77"/>
+      <c r="Z88" s="77"/>
+      <c r="AA88" s="77"/>
+      <c r="AB88" s="77"/>
+      <c r="AC88" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD88" s="88">
+        <f>V61</f>
+        <v>1619883000</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9937,12 +10360,18 @@
         <f t="shared" ref="V89" si="22">(-1*V88)/V3</f>
         <v>3.05766065830721E-2</v>
       </c>
-      <c r="AC89" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD89" s="72">
-        <f>V27</f>
-        <v>401163000</v>
+      <c r="W89" s="77"/>
+      <c r="X89" s="77"/>
+      <c r="Y89" s="77"/>
+      <c r="Z89" s="77"/>
+      <c r="AA89" s="77"/>
+      <c r="AB89" s="77"/>
+      <c r="AC89" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD89" s="89">
+        <f>AD86/(AD87+AD88)</f>
+        <v>2.5972374599091204E-3</v>
       </c>
       <c r="AE89" s="15"/>
       <c r="AF89" s="15"/>
@@ -10020,12 +10449,18 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="W90" s="77"/>
+      <c r="X90" s="77"/>
+      <c r="Y90" s="77"/>
+      <c r="Z90" s="77"/>
+      <c r="AA90" s="77"/>
+      <c r="AB90" s="77"/>
       <c r="AC90" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD90" s="72">
-        <f>V25</f>
-        <v>1640273000</v>
+        <v>105</v>
+      </c>
+      <c r="AD90" s="88">
+        <f>V27</f>
+        <v>401163000</v>
       </c>
     </row>
     <row r="91" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10095,12 +10530,18 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD91" s="74">
-        <f>AD89/AD90</f>
-        <v>0.24457087326317023</v>
+      <c r="W91" s="77"/>
+      <c r="X91" s="77"/>
+      <c r="Y91" s="77"/>
+      <c r="Z91" s="77"/>
+      <c r="AA91" s="77"/>
+      <c r="AB91" s="77"/>
+      <c r="AC91" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD91" s="88">
+        <f>V25</f>
+        <v>1640273000</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10170,12 +10611,18 @@
       <c r="V92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC92" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD92" s="74">
-        <f>AD88*(1-AD91)</f>
-        <v>1.9620288262673291E-3</v>
+      <c r="W92" s="77"/>
+      <c r="X92" s="77"/>
+      <c r="Y92" s="77"/>
+      <c r="Z92" s="77"/>
+      <c r="AA92" s="77"/>
+      <c r="AB92" s="77"/>
+      <c r="AC92" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD92" s="89">
+        <f>AD90/AD91</f>
+        <v>0.24457087326317023</v>
       </c>
     </row>
     <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10246,12 +10693,21 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD93" s="95"/>
-    </row>
-    <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="W93" s="77"/>
+      <c r="X93" s="77"/>
+      <c r="Y93" s="77"/>
+      <c r="Z93" s="77"/>
+      <c r="AA93" s="77"/>
+      <c r="AB93" s="77"/>
+      <c r="AC93" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD93" s="89">
+        <f>AD89*(1-AD92)</f>
+        <v>1.9620288262673291E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -10318,13 +10774,16 @@
       <c r="V94" s="10">
         <v>-314584000</v>
       </c>
-      <c r="AC94" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD94" s="75">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="W94" s="77"/>
+      <c r="X94" s="77"/>
+      <c r="Y94" s="77"/>
+      <c r="Z94" s="77"/>
+      <c r="AA94" s="77"/>
+      <c r="AB94" s="77"/>
+      <c r="AC94" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD94" s="108"/>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -10393,12 +10852,18 @@
       <c r="V95" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="W95" s="77"/>
+      <c r="X95" s="77"/>
+      <c r="Y95" s="77"/>
+      <c r="Z95" s="77"/>
+      <c r="AA95" s="77"/>
+      <c r="AB95" s="77"/>
       <c r="AC95" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD95" s="76" cm="1">
-        <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.3423</v>
+        <v>133</v>
+      </c>
+      <c r="AD95" s="102">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10468,11 +10933,18 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="W96" s="77"/>
+      <c r="X96" s="77"/>
+      <c r="Y96" s="77"/>
+      <c r="Z96" s="77"/>
+      <c r="AA96" s="77"/>
+      <c r="AB96" s="77"/>
       <c r="AC96" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD96" s="75">
-        <v>8.4000000000000005E-2</v>
+        <v>134</v>
+      </c>
+      <c r="AD96" s="91" cm="1">
+        <f t="array" ref="AD96">_FV(A1,"Beta")</f>
+        <v>1.3624000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10542,12 +11014,17 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD97" s="74">
-        <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.9362424000000005E-2</v>
+      <c r="W97" s="77"/>
+      <c r="X97" s="77"/>
+      <c r="Y97" s="77"/>
+      <c r="Z97" s="77"/>
+      <c r="AA97" s="77"/>
+      <c r="AB97" s="77"/>
+      <c r="AC97" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD97" s="90">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10617,12 +11094,21 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD98" s="95"/>
-    </row>
-    <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
+      <c r="W98" s="77"/>
+      <c r="X98" s="77"/>
+      <c r="Y98" s="77"/>
+      <c r="Z98" s="77"/>
+      <c r="AA98" s="77"/>
+      <c r="AB98" s="77"/>
+      <c r="AC98" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD98" s="89">
+        <f>(AD95)+((AD96)*(AD97-AD95))</f>
+        <v>9.6676752000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -10689,13 +11175,16 @@
       <c r="V99" s="1">
         <v>46011000</v>
       </c>
-      <c r="AC99" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD99" s="72">
-        <f>AD86+AD87</f>
-        <v>1903176000</v>
-      </c>
+      <c r="W99" s="77"/>
+      <c r="X99" s="77"/>
+      <c r="Y99" s="77"/>
+      <c r="Z99" s="77"/>
+      <c r="AA99" s="77"/>
+      <c r="AB99" s="77"/>
+      <c r="AC99" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD99" s="108"/>
     </row>
     <row r="100" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -10764,12 +11253,18 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD100" s="74">
-        <f>AD99/AD103</f>
-        <v>7.8013192711027426E-2</v>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD100" s="88">
+        <f>AD87+AD88</f>
+        <v>1903176000</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10839,12 +11334,18 @@
       <c r="V101" s="1">
         <v>-56000</v>
       </c>
-      <c r="AC101" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD101" s="32" cm="1">
-        <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22492390107</v>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
+      <c r="AA101" s="77"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD101" s="89">
+        <f>AD100/AD104</f>
+        <v>9.3944239833239893E-2</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10914,12 +11415,18 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD102" s="74">
-        <f>AD101/AD103</f>
-        <v>0.92198680728897253</v>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
+      <c r="AA102" s="77"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD102" s="92" cm="1">
+        <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
+        <v>18355394439</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -10989,12 +11496,18 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD103" s="77">
-        <f>AD99+AD101</f>
-        <v>24395566107</v>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
+      <c r="AA103" s="77"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD103" s="89">
+        <f>AD102/AD104</f>
+        <v>0.90605576016676015</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11064,17 +11577,28 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD104" s="94"/>
-    </row>
-    <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W104" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="X104" s="110"/>
+      <c r="Y104" s="110"/>
+      <c r="Z104" s="110"/>
+      <c r="AA104" s="110"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD104" s="93">
+        <f>AD100+AD102</f>
+        <v>20258570439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="23">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:V105" si="23">(C22*(1-$AD$92))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1" t="e">
@@ -11150,39 +11674,36 @@
         <v>578224248.50802279</v>
       </c>
       <c r="V105" s="1">
-        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <f t="shared" si="23"/>
         <v>1167099721.3622367</v>
       </c>
-      <c r="W105" s="28">
-        <f>V105*(1+$AD$106)</f>
-        <v>1237496518.2500589</v>
-      </c>
-      <c r="X105" s="28">
-        <f t="shared" ref="X105:AA105" si="24">W105*(1+$AD$106)</f>
-        <v>1312139489.5832667</v>
-      </c>
-      <c r="Y105" s="28">
-        <f t="shared" si="24"/>
-        <v>1391284754.9328885</v>
-      </c>
-      <c r="Z105" s="28">
-        <f t="shared" si="24"/>
-        <v>1475203882.4191122</v>
-      </c>
-      <c r="AA105" s="28">
-        <f t="shared" si="24"/>
-        <v>1564184820.5325851</v>
-      </c>
-      <c r="AB105" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC105" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD105" s="79">
-        <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.1763908201181368E-2</v>
-      </c>
+      <c r="W105" s="103">
+        <f>W107/W3</f>
+        <v>8.805956759666278E-2</v>
+      </c>
+      <c r="X105" s="103">
+        <f>X107/X3</f>
+        <v>9.1802718181041118E-2</v>
+      </c>
+      <c r="Y105" s="103">
+        <f>Y107/Y3</f>
+        <v>9.2281608267398674E-2</v>
+      </c>
+      <c r="Z105" s="103">
+        <f>Z107/Z3</f>
+        <v>9.8511858626569526E-2</v>
+      </c>
+      <c r="AA105" s="103">
+        <f>AA107/AA3</f>
+        <v>9.8629735472997734E-2</v>
+      </c>
+      <c r="AB105" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC105" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD105" s="108"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
       <c r="AG105" s="15"/>
@@ -11193,115 +11714,121 @@
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
     </row>
-    <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:V106" si="25">(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="24">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.67274088866699944</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.2017609312042978</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.35116448326055316</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-3.9366797532249018</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.24153473004717252</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.16144180893387716</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.45341513913128317</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.0169565476072426</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.45057570722018458</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.48004067107269954</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2.40174951438591</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.2978255371007672</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.88018083460307328</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.26075853544768801</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.17971769858699804</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.34714171383272907</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.31893700441223882</v>
       </c>
-      <c r="W106" s="67">
-        <v>977800000</v>
-      </c>
-      <c r="X106" s="67">
-        <v>1050000000</v>
-      </c>
-      <c r="Y106" s="67">
-        <v>1138000000</v>
-      </c>
-      <c r="Z106" s="67">
-        <v>1283000000</v>
-      </c>
-      <c r="AA106" s="67">
-        <v>1364000000</v>
-      </c>
-      <c r="AB106" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC106" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD106" s="81">
-        <f>(SUM(W4:AA4)/5)</f>
-        <v>6.0317722298532495E-2</v>
+      <c r="W106" s="79">
+        <f>(W107/V107)-1</f>
+        <v>-0.16102564102564099</v>
+      </c>
+      <c r="X106" s="79">
+        <f>(X107/W107)-1</f>
+        <v>9.4132029339853318E-2</v>
+      </c>
+      <c r="Y106" s="79">
+        <f>(Y107/X107)-1</f>
+        <v>6.4245810055865826E-2</v>
+      </c>
+      <c r="Z106" s="79">
+        <f>(Z107/Y107)-1</f>
+        <v>0.11198600174978135</v>
+      </c>
+      <c r="AA106" s="79">
+        <f>(AA107/Z107)-1</f>
+        <v>5.9008654602675126E-2</v>
+      </c>
+      <c r="AB106" s="80">
+        <f>SUM(W106:AA106)/5</f>
+        <v>3.3669370944506928E-2</v>
+      </c>
+      <c r="AC106" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD106" s="94">
+        <f>(AD101*AD93)+(AD103*AD98)</f>
+        <v>8.7778849330427941E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11371,151 +11898,239 @@
       <c r="V107" s="1">
         <v>1170000000</v>
       </c>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="32">
-        <f>AA105*(1+AD107)/(AD108-AD107)</f>
-        <v>24014313784.847157</v>
-      </c>
-      <c r="AB107" s="33" t="s">
+      <c r="W107" s="81">
+        <v>981600000</v>
+      </c>
+      <c r="X107" s="81">
+        <v>1074000000</v>
+      </c>
+      <c r="Y107" s="81">
+        <v>1143000000</v>
+      </c>
+      <c r="Z107" s="81">
+        <v>1271000000</v>
+      </c>
+      <c r="AA107" s="81">
+        <v>1346000000</v>
+      </c>
+      <c r="AB107" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC107" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD107" s="74">
+        <f>(SUM(W4:AA4)/5)</f>
+        <v>5.9926523870554818E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="W108" s="105"/>
+      <c r="X108" s="105"/>
+      <c r="Y108" s="105"/>
+      <c r="Z108" s="105"/>
+      <c r="AA108" s="82">
+        <f>AA107*(1+AD108)/(AD109-AD108)</f>
+        <v>21976350549.822914</v>
+      </c>
+      <c r="AB108" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="AC107" s="82" t="s">
+      <c r="AC108" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="AD107" s="83">
+      <c r="AD108" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="32">
-        <f t="shared" ref="W108:Z108" si="26">W107+W105</f>
-        <v>1237496518.2500589</v>
-      </c>
-      <c r="X108" s="32">
-        <f t="shared" si="26"/>
-        <v>1312139489.5832667</v>
-      </c>
-      <c r="Y108" s="32">
-        <f t="shared" si="26"/>
-        <v>1391284754.9328885</v>
-      </c>
-      <c r="Z108" s="32">
-        <f t="shared" si="26"/>
-        <v>1475203882.4191122</v>
-      </c>
-      <c r="AA108" s="32">
-        <f>AA107+AA105</f>
-        <v>25578498605.379742</v>
-      </c>
-      <c r="AB108" s="33" t="s">
+    <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="W109" s="82">
+        <f t="shared" ref="W109:Y109" si="25">W108+W107</f>
+        <v>981600000</v>
+      </c>
+      <c r="X109" s="82">
+        <f t="shared" si="25"/>
+        <v>1074000000</v>
+      </c>
+      <c r="Y109" s="82">
+        <f t="shared" si="25"/>
+        <v>1143000000</v>
+      </c>
+      <c r="Z109" s="82">
+        <f>Z108+Z107</f>
+        <v>1271000000</v>
+      </c>
+      <c r="AA109" s="82">
+        <f>AA108+AA107</f>
+        <v>23322350549.822914</v>
+      </c>
+      <c r="AB109" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="AC108" s="84" t="s">
+      <c r="AC109" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="AD108" s="81">
-        <f>AD105</f>
-        <v>9.1763908201181368E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="91" t="s">
+      <c r="AD109" s="74">
+        <f>AD106</f>
+        <v>8.7778849330427941E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="W110" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="91"/>
-    </row>
-    <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="85" t="s">
+      <c r="X110" s="109"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+      <c r="AA110" s="77"/>
+      <c r="AB110" s="77"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+    </row>
+    <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.2">
+      <c r="W111" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="32">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>20832189128.661263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="85" t="s">
+      <c r="X111" s="92">
+        <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
+        <v>18919174448.275394</v>
+      </c>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+      <c r="AA111" s="77"/>
+      <c r="AB111" s="77"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+    </row>
+    <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.2">
+      <c r="W112" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="X111" s="32">
+      <c r="X112" s="92">
         <f>V40</f>
         <v>737877000</v>
       </c>
-    </row>
-    <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="85" t="s">
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+    </row>
+    <row r="113" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W113" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="X112" s="32">
-        <f>AD99</f>
+      <c r="X113" s="92">
+        <f>AD100</f>
         <v>1903176000</v>
       </c>
-    </row>
-    <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="85" t="s">
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
+      <c r="AA113" s="77"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+    </row>
+    <row r="114" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W114" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="X113" s="32">
-        <f>X110+X111-X112</f>
-        <v>19666890128.661263</v>
-      </c>
-    </row>
-    <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="85" t="s">
+      <c r="X114" s="92">
+        <f>X111+X112-X113</f>
+        <v>17753875448.275394</v>
+      </c>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+    </row>
+    <row r="115" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W115" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="X114" s="85">
+      <c r="X115" s="95">
         <f>V34*(1+(5*AB16))</f>
         <v>43003211.19368273</v>
       </c>
-    </row>
-    <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="86" t="s">
+      <c r="Y115" s="77"/>
+      <c r="Z115" s="77"/>
+      <c r="AA115" s="77"/>
+      <c r="AB115" s="77"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+    </row>
+    <row r="116" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W116" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="X115" s="87">
-        <f>X113/X114</f>
-        <v>457.33538456194111</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="85" t="s">
+      <c r="X116" s="97">
+        <f>X114/X115</f>
+        <v>412.84999318570607</v>
+      </c>
+      <c r="Y116" s="77"/>
+      <c r="Z116" s="77"/>
+      <c r="AA116" s="77"/>
+      <c r="AB116" s="77"/>
+      <c r="AC116" s="77"/>
+      <c r="AD116" s="77"/>
+    </row>
+    <row r="117" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W117" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="X116" s="88" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>451.64</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="86" t="s">
+      <c r="X117" s="98" cm="1">
+        <f t="array" ref="X117">_FV(A1,"Price")</f>
+        <v>372.86</v>
+      </c>
+      <c r="Y117" s="77"/>
+      <c r="Z117" s="77"/>
+      <c r="AA117" s="77"/>
+      <c r="AB117" s="77"/>
+      <c r="AC117" s="77"/>
+      <c r="AD117" s="77"/>
+    </row>
+    <row r="118" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W118" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="X117" s="89">
-        <f>X115/X116-1</f>
-        <v>1.2610452045746845E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="86" t="s">
+      <c r="X118" s="99">
+        <f>X116/X117-1</f>
+        <v>0.10725203343267187</v>
+      </c>
+      <c r="Y118" s="77"/>
+      <c r="Z118" s="77"/>
+      <c r="AA118" s="77"/>
+      <c r="AB118" s="77"/>
+      <c r="AC118" s="77"/>
+      <c r="AD118" s="77"/>
+    </row>
+    <row r="119" spans="23:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W119" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="X118" s="90" t="str">
-        <f>IF(X115&gt;X116,"BUY","SELL")</f>
+      <c r="X119" s="100" t="str">
+        <f>IF(X116&gt;X117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="Y119" s="77"/>
+      <c r="Z119" s="77"/>
+      <c r="AA119" s="77"/>
+      <c r="AB119" s="77"/>
+      <c r="AC119" s="77"/>
+      <c r="AD119" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="AC83:AD83"/>
+  <mergeCells count="7">
     <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="W104:AA104"/>
+    <mergeCell ref="AC105:AD105"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AC94:AD94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ULTA" display="ROIC.AI | ULTA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11562,7 +12177,7 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{25644EF6-F4DB-7640-9918-3A92358C3381}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1403568/000155837022004330/0001558370-22-004330-index.htm" xr:uid="{09850EAB-BE63-4F4C-8A4D-C38D5A681AF3}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:ULTA/explorer/revenue_proj" xr:uid="{B86A6E5A-3219-144F-B30D-F2293AF1966B}"/>
-    <hyperlink ref="AB106" r:id="rId45" xr:uid="{30A2E8B7-8BBC-7B43-A21D-ACCEFD71BD1E}"/>
+    <hyperlink ref="AB107" r:id="rId45" xr:uid="{30A2E8B7-8BBC-7B43-A21D-ACCEFD71BD1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId46"/>
@@ -12661,20 +13276,20 @@
       <c r="B83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="I83" s="98" t="s">
+      <c r="I83" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="J83" s="99"/>
+      <c r="J83" s="114"/>
     </row>
     <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="I84" s="100" t="s">
+      <c r="I84" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J84" s="101"/>
+      <c r="J84" s="116"/>
     </row>
     <row r="85" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12802,10 +13417,10 @@
         <f>B88</f>
         <v>-312126000</v>
       </c>
-      <c r="I93" s="102" t="s">
+      <c r="I93" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="J93" s="103"/>
+      <c r="J93" s="118"/>
     </row>
     <row r="94" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12817,9 +13432,9 @@
       <c r="I94" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J94" s="53">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+      <c r="J94" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" x14ac:dyDescent="0.25">
@@ -12861,9 +13476,9 @@
       <c r="I97" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="J97" s="52" t="e" vm="2">
+      <c r="J97" s="52" t="e">
         <f>(J94)+((J95)*(J96-J94))</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -12873,10 +13488,10 @@
       <c r="B98" s="1">
         <v>0</v>
       </c>
-      <c r="I98" s="102" t="s">
+      <c r="I98" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="J98" s="103"/>
+      <c r="J98" s="118"/>
     </row>
     <row r="99" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12960,10 +13575,10 @@
       <c r="B104" s="11">
         <v>737877000</v>
       </c>
-      <c r="I104" s="100" t="s">
+      <c r="I104" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="J104" s="101"/>
+      <c r="J104" s="116"/>
     </row>
     <row r="105" spans="1:11" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13097,10 +13712,10 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C109" s="96" t="s">
+      <c r="C109" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="97"/>
+      <c r="D109" s="112"/>
     </row>
     <row r="110" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="C110" s="38" t="s">

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72748C00-2B8A-6E4B-BEB9-3216F79730BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D8A22-9F11-2A41-A27E-3F72C4765DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2826,7 +2826,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2967,11 +2967,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>369.84</v>
-    <v>1.3624000000000001</v>
-    <v>0.36</v>
-    <v>9.6640000000000007E-4</v>
-    <v>-0.21</v>
-    <v>-5.6320000000000003E-4</v>
+    <v>1.3653999999999999</v>
+    <v>-1.01</v>
+    <v>-2.7089999999999996E-3</v>
+    <v>-0.06</v>
+    <v>-1.6140000000000002E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2979,25 +2979,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>378.935</v>
+    <v>375.88</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45218.99921012656</v>
+    <v>45219.99123592578</v>
     <v>0</v>
-    <v>369.84</v>
-    <v>18355394439</v>
+    <v>369.88</v>
+    <v>18305673502</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>371.66</v>
-    <v>14.954000000000001</v>
-    <v>372.5</v>
+    <v>373.87</v>
+    <v>14.968400000000001</v>
     <v>372.86</v>
-    <v>372.65</v>
+    <v>371.85</v>
+    <v>371.79</v>
     <v>49228650</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>766108</v>
-    <v>766751</v>
+    <v>674462</v>
+    <v>772271</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3616,7 +3616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U111" sqref="U111"/>
+      <selection pane="bottomRight" activeCell="V111" sqref="V111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5007,15 +5007,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD102/V3</f>
-        <v>1.7981381699647336</v>
+        <v>1.7932673885188088</v>
       </c>
       <c r="AD16" s="64">
         <f>AD102/V28</f>
-        <v>14.774047204300036</v>
+        <v>14.734027390358079</v>
       </c>
       <c r="AE16" s="65">
         <f>AD102/V107</f>
-        <v>15.688371315384616</v>
+        <v>15.645874788034188</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5254,15 +5254,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD102/W3</f>
-        <v>1.6466667658562841</v>
+        <v>1.6422062888669597</v>
       </c>
       <c r="AD19" s="66">
         <f>AD102/W28</f>
-        <v>14.637475629186603</v>
+        <v>14.597825759170654</v>
       </c>
       <c r="AE19" s="65">
         <f>AD102/W107</f>
-        <v>18.699464587408311</v>
+        <v>18.64881163610432</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="AE22" s="70">
         <f>W107/AD102</f>
-        <v>5.3477466979101183E-2</v>
+        <v>5.3622719748211096E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="AD95" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="AD96" s="91" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.3624000000000001</v>
+        <v>1.3653999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="AD98" s="89">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>9.6676752000000005E-2</v>
+        <v>9.6467448000000011E-2</v>
       </c>
     </row>
     <row r="99" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="AD101" s="89">
         <f>AD100/AD104</f>
-        <v>9.3944239833239893E-2</v>
+        <v>9.4175375981282325E-2</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="AD102" s="92" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>18355394439</v>
+        <v>18305673502</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AD103" s="89">
         <f>AD102/AD104</f>
-        <v>0.90605576016676015</v>
+        <v>0.90582462401871766</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="AD104" s="93">
         <f>AD100+AD102</f>
-        <v>20258570439</v>
+        <v>20208849502</v>
       </c>
     </row>
     <row r="105" spans="1:39" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="AD106" s="94">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>8.7778849330427941E-2</v>
+        <v>8.7567364617045049E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11931,7 +11931,7 @@
       <c r="Z108" s="105"/>
       <c r="AA108" s="82">
         <f>AA107*(1+AD108)/(AD109-AD108)</f>
-        <v>21976350549.822914</v>
+        <v>22050633080.750629</v>
       </c>
       <c r="AB108" s="83" t="s">
         <v>145</v>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="AA109" s="82">
         <f>AA108+AA107</f>
-        <v>23322350549.822914</v>
+        <v>23396633080.750629</v>
       </c>
       <c r="AB109" s="83" t="s">
         <v>142</v>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="AD109" s="74">
         <f>AD106</f>
-        <v>8.7778849330427941E-2</v>
+        <v>8.7567364617045049E-2</v>
       </c>
     </row>
     <row r="110" spans="1:39" ht="19" x14ac:dyDescent="0.2">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="X111" s="92">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>18919174448.275394</v>
+        <v>18984642993.723434</v>
       </c>
       <c r="Y111" s="77"/>
       <c r="Z111" s="77"/>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="X114" s="92">
         <f>X111+X112-X113</f>
-        <v>17753875448.275394</v>
+        <v>17819343993.723434</v>
       </c>
       <c r="Y114" s="77"/>
       <c r="Z114" s="77"/>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="X116" s="97">
         <f>X114/X115</f>
-        <v>412.84999318570607</v>
+        <v>414.37240380646591</v>
       </c>
       <c r="Y116" s="77"/>
       <c r="Z116" s="77"/>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="X117" s="98" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>372.86</v>
+        <v>371.85</v>
       </c>
       <c r="Y117" s="77"/>
       <c r="Z117" s="77"/>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="X118" s="99">
         <f>X116/X117-1</f>
-        <v>0.10725203343267187</v>
+        <v>0.11435364745587173</v>
       </c>
       <c r="Y118" s="77"/>
       <c r="Z118" s="77"/>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D8A22-9F11-2A41-A27E-3F72C4765DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C998C2D2-A263-AE4B-BF9A-7A83B95577C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2801,13 +2801,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2823,14 +2825,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2840,6 +2842,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2966,12 +2970,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
-    <v>369.84</v>
-    <v>1.3653999999999999</v>
-    <v>-1.01</v>
-    <v>-2.7089999999999996E-3</v>
-    <v>-0.06</v>
-    <v>-1.6140000000000002E-4</v>
+    <v>368.02</v>
+    <v>1.3599000000000001</v>
+    <v>-0.09</v>
+    <v>-2.3689999999999998E-4</v>
+    <v>-0.02</v>
+    <v>-5.2649999999999999E-5</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2979,25 +2983,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>375.88</v>
+    <v>385.91</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45219.99123592578</v>
+    <v>45226.998161180469</v>
     <v>0</v>
-    <v>369.88</v>
-    <v>18305673502</v>
+    <v>379.51</v>
+    <v>18700490000</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>373.87</v>
-    <v>14.968400000000001</v>
-    <v>372.86</v>
-    <v>371.85</v>
-    <v>371.79</v>
+    <v>380.4</v>
+    <v>15.2499</v>
+    <v>379.96</v>
+    <v>379.87</v>
+    <v>379.85</v>
     <v>49228650</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>674462</v>
-    <v>772271</v>
+    <v>462808</v>
+    <v>777742</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3190,9 +3194,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3613,10 +3617,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V111" sqref="V111"/>
+      <selection pane="bottomRight" activeCell="U114" sqref="U114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5007,15 +5011,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD102/V3</f>
-        <v>1.7932673885188088</v>
+        <v>1.8319445532915362</v>
       </c>
       <c r="AD16" s="64">
         <f>AD102/V28</f>
-        <v>14.734027390358079</v>
+        <v>15.051810677329831</v>
       </c>
       <c r="AE16" s="65">
         <f>AD102/V107</f>
-        <v>15.645874788034188</v>
+        <v>15.983324786324786</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5254,15 +5258,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD102/W3</f>
-        <v>1.6422062888669597</v>
+        <v>1.6776253700547232</v>
       </c>
       <c r="AD19" s="66">
         <f>AD102/W28</f>
-        <v>14.597825759170654</v>
+        <v>14.912671451355662</v>
       </c>
       <c r="AE19" s="65">
         <f>AD102/W107</f>
-        <v>18.64881163610432</v>
+        <v>19.051028932355337</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5557,7 +5561,7 @@
       </c>
       <c r="AE22" s="70">
         <f>W107/AD102</f>
-        <v>5.3622719748211096E-2</v>
+        <v>5.2490603187403111E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10863,7 +10867,7 @@
       </c>
       <c r="AD95" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10944,7 +10948,7 @@
       </c>
       <c r="AD96" s="91" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.3653999999999999</v>
+        <v>1.3599000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11105,7 +11109,7 @@
       </c>
       <c r="AD98" s="89">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>9.6467448000000011E-2</v>
+        <v>9.6794445000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11345,7 +11349,7 @@
       </c>
       <c r="AD101" s="89">
         <f>AD100/AD104</f>
-        <v>9.4175375981282325E-2</v>
+        <v>9.2370746060434106E-2</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11426,7 +11430,7 @@
       </c>
       <c r="AD102" s="92" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>18305673502</v>
+        <v>18700490000</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11507,7 +11511,7 @@
       </c>
       <c r="AD103" s="89">
         <f>AD102/AD104</f>
-        <v>0.90582462401871766</v>
+        <v>0.90762925393956595</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11590,7 +11594,7 @@
       </c>
       <c r="AD104" s="93">
         <f>AD100+AD102</f>
-        <v>20208849502</v>
+        <v>20603666000</v>
       </c>
     </row>
     <row r="105" spans="1:39" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11828,7 +11832,7 @@
       </c>
       <c r="AD106" s="94">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>8.7567364617045049E-2</v>
+        <v>8.8034703967318759E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11931,7 +11935,7 @@
       <c r="Z108" s="105"/>
       <c r="AA108" s="82">
         <f>AA107*(1+AD108)/(AD109-AD108)</f>
-        <v>22050633080.750629</v>
+        <v>21887149667.828999</v>
       </c>
       <c r="AB108" s="83" t="s">
         <v>145</v>
@@ -11962,7 +11966,7 @@
       </c>
       <c r="AA109" s="82">
         <f>AA108+AA107</f>
-        <v>23396633080.750629</v>
+        <v>23233149667.828999</v>
       </c>
       <c r="AB109" s="83" t="s">
         <v>142</v>
@@ -11972,7 +11976,7 @@
       </c>
       <c r="AD109" s="74">
         <f>AD106</f>
-        <v>8.7567364617045049E-2</v>
+        <v>8.8034703967318759E-2</v>
       </c>
     </row>
     <row r="110" spans="1:39" ht="19" x14ac:dyDescent="0.2">
@@ -11993,7 +11997,7 @@
       </c>
       <c r="X111" s="92">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>18984642993.723434</v>
+        <v>18840559196.201057</v>
       </c>
       <c r="Y111" s="77"/>
       <c r="Z111" s="77"/>
@@ -12038,7 +12042,7 @@
       </c>
       <c r="X114" s="92">
         <f>X111+X112-X113</f>
-        <v>17819343993.723434</v>
+        <v>17675260196.201057</v>
       </c>
       <c r="Y114" s="77"/>
       <c r="Z114" s="77"/>
@@ -12068,7 +12072,7 @@
       </c>
       <c r="X116" s="97">
         <f>X114/X115</f>
-        <v>414.37240380646591</v>
+        <v>411.02186803197606</v>
       </c>
       <c r="Y116" s="77"/>
       <c r="Z116" s="77"/>
@@ -12083,7 +12087,7 @@
       </c>
       <c r="X117" s="98" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>371.85</v>
+        <v>379.87</v>
       </c>
       <c r="Y117" s="77"/>
       <c r="Z117" s="77"/>
@@ -12098,7 +12102,7 @@
       </c>
       <c r="X118" s="99">
         <f>X116/X117-1</f>
-        <v>0.11435364745587173</v>
+        <v>8.2006654992434314E-2</v>
       </c>
       <c r="Y118" s="77"/>
       <c r="Z118" s="77"/>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C998C2D2-A263-AE4B-BF9A-7A83B95577C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD18D362-3A58-AC43-93A5-7BC62ED3BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2806,13 +2806,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2829,7 +2826,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2841,9 +2838,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2971,11 +2965,9 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>368.02</v>
-    <v>1.3599000000000001</v>
-    <v>-0.09</v>
-    <v>-2.3689999999999998E-4</v>
-    <v>-0.02</v>
-    <v>-5.2649999999999999E-5</v>
+    <v>1.3604000000000001</v>
+    <v>4.8600000000000003</v>
+    <v>1.2944000000000001E-2</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2983,25 +2975,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>385.91</v>
+    <v>385.935</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45226.998161180469</v>
+    <v>45232.990805578127</v>
     <v>0</v>
-    <v>379.51</v>
-    <v>18700490000</v>
+    <v>379.54</v>
+    <v>18722640168</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>380.4</v>
-    <v>15.2499</v>
-    <v>379.96</v>
-    <v>379.87</v>
-    <v>379.85</v>
+    <v>379.54</v>
+    <v>15.267899999999999</v>
+    <v>375.46</v>
+    <v>380.32</v>
     <v>49228650</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>462808</v>
-    <v>777742</v>
+    <v>677528</v>
+    <v>770403</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3052,8 +3043,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3074,7 +3063,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3100,7 +3088,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3111,16 +3099,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3186,19 +3171,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3243,9 +3222,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3253,9 +3229,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3620,7 +3593,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U114" sqref="U114"/>
+      <selection pane="bottomRight" activeCell="V121" sqref="V121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5011,15 +4984,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD102/V3</f>
-        <v>1.8319445532915362</v>
+        <v>1.8341144365203761</v>
       </c>
       <c r="AD16" s="64">
         <f>AD102/V28</f>
-        <v>15.051810677329831</v>
+        <v>15.069639094403771</v>
       </c>
       <c r="AE16" s="65">
         <f>AD102/V107</f>
-        <v>15.983324786324786</v>
+        <v>16.002256553846152</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5258,15 +5231,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD102/W3</f>
-        <v>1.6776253700547232</v>
+        <v>1.6796124668520678</v>
       </c>
       <c r="AD19" s="66">
         <f>AD102/W28</f>
-        <v>14.912671451355662</v>
+        <v>14.930335062200957</v>
       </c>
       <c r="AE19" s="65">
         <f>AD102/W107</f>
-        <v>19.051028932355337</v>
+        <v>19.073594303178485</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5561,7 +5534,7 @@
       </c>
       <c r="AE22" s="70">
         <f>W107/AD102</f>
-        <v>5.2490603187403111E-2</v>
+        <v>5.2428503202113133E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10867,7 +10840,7 @@
       </c>
       <c r="AD95" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10948,7 +10921,7 @@
       </c>
       <c r="AD96" s="91" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.3599000000000001</v>
+        <v>1.3604000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11109,7 +11082,7 @@
       </c>
       <c r="AD98" s="89">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>9.6794445000000007E-2</v>
+        <v>9.6704100000000015E-2</v>
       </c>
     </row>
     <row r="99" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11349,7 +11322,7 @@
       </c>
       <c r="AD101" s="89">
         <f>AD100/AD104</f>
-        <v>9.2370746060434106E-2</v>
+        <v>9.2271548650408777E-2</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11430,7 +11403,7 @@
       </c>
       <c r="AD102" s="92" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>18700490000</v>
+        <v>18722640168</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11511,7 +11484,7 @@
       </c>
       <c r="AD103" s="89">
         <f>AD102/AD104</f>
-        <v>0.90762925393956595</v>
+        <v>0.90772845134959124</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11594,7 +11567,7 @@
       </c>
       <c r="AD104" s="93">
         <f>AD100+AD102</f>
-        <v>20603666000</v>
+        <v>20625816168</v>
       </c>
     </row>
     <row r="105" spans="1:39" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11832,7 +11805,7 @@
       </c>
       <c r="AD106" s="94">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>8.8034703967318759E-2</v>
+        <v>8.7962102370452461E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11935,7 +11908,7 @@
       <c r="Z108" s="105"/>
       <c r="AA108" s="82">
         <f>AA107*(1+AD108)/(AD109-AD108)</f>
-        <v>21887149667.828999</v>
+        <v>21912387738.937016</v>
       </c>
       <c r="AB108" s="83" t="s">
         <v>145</v>
@@ -11966,7 +11939,7 @@
       </c>
       <c r="AA109" s="82">
         <f>AA108+AA107</f>
-        <v>23233149667.828999</v>
+        <v>23258387738.937016</v>
       </c>
       <c r="AB109" s="83" t="s">
         <v>142</v>
@@ -11976,7 +11949,7 @@
       </c>
       <c r="AD109" s="74">
         <f>AD106</f>
-        <v>8.8034703967318759E-2</v>
+        <v>8.7962102370452461E-2</v>
       </c>
     </row>
     <row r="110" spans="1:39" ht="19" x14ac:dyDescent="0.2">
@@ -11997,7 +11970,7 @@
       </c>
       <c r="X111" s="92">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>18840559196.201057</v>
+        <v>18862802051.775856</v>
       </c>
       <c r="Y111" s="77"/>
       <c r="Z111" s="77"/>
@@ -12042,7 +12015,7 @@
       </c>
       <c r="X114" s="92">
         <f>X111+X112-X113</f>
-        <v>17675260196.201057</v>
+        <v>17697503051.775856</v>
       </c>
       <c r="Y114" s="77"/>
       <c r="Z114" s="77"/>
@@ -12072,7 +12045,7 @@
       </c>
       <c r="X116" s="97">
         <f>X114/X115</f>
-        <v>411.02186803197606</v>
+        <v>411.53910511630954</v>
       </c>
       <c r="Y116" s="77"/>
       <c r="Z116" s="77"/>
@@ -12087,7 +12060,7 @@
       </c>
       <c r="X117" s="98" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>379.87</v>
+        <v>380.32</v>
       </c>
       <c r="Y117" s="77"/>
       <c r="Z117" s="77"/>
@@ -12102,7 +12075,7 @@
       </c>
       <c r="X118" s="99">
         <f>X116/X117-1</f>
-        <v>8.2006654992434314E-2</v>
+        <v>8.2086414378180317E-2</v>
       </c>
       <c r="Y118" s="77"/>
       <c r="Z118" s="77"/>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD18D362-3A58-AC43-93A5-7BC62ED3BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF44472F-8A27-344A-B426-CA572DC3AA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2826,7 +2826,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2965,9 +2965,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>368.02</v>
-    <v>1.3604000000000001</v>
-    <v>4.8600000000000003</v>
-    <v>1.2944000000000001E-2</v>
+    <v>1.3535999999999999</v>
+    <v>0.1</v>
+    <v>2.5910000000000001E-4</v>
+    <v>0.03</v>
+    <v>7.7720000000000008E-5</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -2975,24 +2977,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>385.935</v>
+    <v>393.47</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45232.990805578127</v>
+    <v>45237.030868228903</v>
     <v>0</v>
-    <v>379.54</v>
-    <v>18722640168</v>
+    <v>385.34</v>
+    <v>19001274327</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>379.54</v>
-    <v>15.267899999999999</v>
-    <v>375.46</v>
-    <v>380.32</v>
+    <v>388.57</v>
+    <v>15.495100000000001</v>
+    <v>385.88</v>
+    <v>385.98</v>
+    <v>386.01</v>
     <v>49228650</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>677528</v>
-    <v>770403</v>
+    <v>520564</v>
+    <v>768065</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3043,6 +3046,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3063,6 +3068,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3088,7 +3094,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3099,13 +3105,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3171,13 +3180,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3222,6 +3237,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3229,6 +3247,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3590,10 +3611,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V121" sqref="V121"/>
+      <selection pane="bottomRight" activeCell="V112" sqref="V112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4984,15 +5005,15 @@
       </c>
       <c r="AC16" s="64">
         <f>AD102/V3</f>
-        <v>1.8341144365203761</v>
+        <v>1.8614101025666143</v>
       </c>
       <c r="AD16" s="64">
         <f>AD102/V28</f>
-        <v>15.069639094403771</v>
+        <v>15.293908544536094</v>
       </c>
       <c r="AE16" s="65">
         <f>AD102/V107</f>
-        <v>16.002256553846152</v>
+        <v>16.240405407692307</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5231,15 +5252,15 @@
       </c>
       <c r="AC19" s="64">
         <f>AD102/W3</f>
-        <v>1.6796124668520678</v>
+        <v>1.7046088029963218</v>
       </c>
       <c r="AD19" s="66">
         <f>AD102/W28</f>
-        <v>14.930335062200957</v>
+        <v>15.152531361244019</v>
       </c>
       <c r="AE19" s="65">
         <f>AD102/W107</f>
-        <v>19.073594303178485</v>
+        <v>19.357451433374084</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5534,7 +5555,7 @@
       </c>
       <c r="AE22" s="70">
         <f>W107/AD102</f>
-        <v>5.2428503202113133E-2</v>
+        <v>5.1659693087278274E-2</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10840,7 +10861,7 @@
       </c>
       <c r="AD95" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10921,7 +10942,7 @@
       </c>
       <c r="AD96" s="91" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.3604000000000001</v>
+        <v>1.3535999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11082,7 +11103,7 @@
       </c>
       <c r="AD98" s="89">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>9.6704100000000015E-2</v>
+        <v>9.7585312000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11322,7 +11343,7 @@
       </c>
       <c r="AD101" s="89">
         <f>AD100/AD104</f>
-        <v>9.2271548650408777E-2</v>
+        <v>9.1041666737435092E-2</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11403,7 +11424,7 @@
       </c>
       <c r="AD102" s="92" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>18722640168</v>
+        <v>19001274327</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -11484,7 +11505,7 @@
       </c>
       <c r="AD103" s="89">
         <f>AD102/AD104</f>
-        <v>0.90772845134959124</v>
+        <v>0.90895833326256492</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11567,7 +11588,7 @@
       </c>
       <c r="AD104" s="93">
         <f>AD100+AD102</f>
-        <v>20625816168</v>
+        <v>20904450327</v>
       </c>
     </row>
     <row r="105" spans="1:39" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11805,7 +11826,7 @@
       </c>
       <c r="AD106" s="94">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>8.7962102370452461E-2</v>
+        <v>8.8879608920957656E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11908,7 +11929,7 @@
       <c r="Z108" s="105"/>
       <c r="AA108" s="82">
         <f>AA107*(1+AD108)/(AD109-AD108)</f>
-        <v>21912387738.937016</v>
+        <v>21597658835.186821</v>
       </c>
       <c r="AB108" s="83" t="s">
         <v>145</v>
@@ -11939,7 +11960,7 @@
       </c>
       <c r="AA109" s="82">
         <f>AA108+AA107</f>
-        <v>23258387738.937016</v>
+        <v>22943658835.186821</v>
       </c>
       <c r="AB109" s="83" t="s">
         <v>142</v>
@@ -11949,7 +11970,7 @@
       </c>
       <c r="AD109" s="74">
         <f>AD106</f>
-        <v>8.7962102370452461E-2</v>
+        <v>8.8879608920957656E-2</v>
       </c>
     </row>
     <row r="110" spans="1:39" ht="19" x14ac:dyDescent="0.2">
@@ -11970,7 +11991,7 @@
       </c>
       <c r="X111" s="92">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>18862802051.775856</v>
+        <v>18585434323.430927</v>
       </c>
       <c r="Y111" s="77"/>
       <c r="Z111" s="77"/>
@@ -12015,7 +12036,7 @@
       </c>
       <c r="X114" s="92">
         <f>X111+X112-X113</f>
-        <v>17697503051.775856</v>
+        <v>17420135323.430927</v>
       </c>
       <c r="Y114" s="77"/>
       <c r="Z114" s="77"/>
@@ -12045,7 +12066,7 @@
       </c>
       <c r="X116" s="97">
         <f>X114/X115</f>
-        <v>411.53910511630954</v>
+        <v>405.08917450308883</v>
       </c>
       <c r="Y116" s="77"/>
       <c r="Z116" s="77"/>
@@ -12060,7 +12081,7 @@
       </c>
       <c r="X117" s="98" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price")</f>
-        <v>380.32</v>
+        <v>385.98</v>
       </c>
       <c r="Y117" s="77"/>
       <c r="Z117" s="77"/>
@@ -12075,7 +12096,7 @@
       </c>
       <c r="X118" s="99">
         <f>X116/X117-1</f>
-        <v>8.2086414378180317E-2</v>
+        <v>4.9508198619329535E-2</v>
       </c>
       <c r="Y118" s="77"/>
       <c r="Z118" s="77"/>

--- a/Consumer/Ulta Beauty.xlsx
+++ b/Consumer/Ulta Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C368F622-1792-814B-9CE5-791868015BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178340D-1AEE-AC4E-80D8-CAB6234B332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,7 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,7 +1701,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1739,6 +1742,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1758,7 +1763,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1771,6 +1776,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1898,11 +1905,11 @@
     <v>Powered by Refinitiv</v>
     <v>556.6</v>
     <v>368.02</v>
-    <v>1.3231999999999999</v>
-    <v>46.04</v>
-    <v>0.10807800000000001</v>
-    <v>0.97</v>
-    <v>2.055E-3</v>
+    <v>1.32</v>
+    <v>-7.69</v>
+    <v>-1.5699000000000001E-2</v>
+    <v>-0.41</v>
+    <v>-8.5029999999999991E-4</v>
     <v>USD</v>
     <v>Ulta Beauty, Inc. (Ulta Beauty) conducts its business as a specialty beauty retailer. The Company operates specialty retail stores, which are engaged in selling cosmetics, fragrance, haircare and skincare products, and related accessories and services. The stores also feature full-service salons. Its stores, e-commerce Website, and mobile applications offer approximately 25,000 products across various categories and price points, including Ulta Beauty's own private label and the Ulta Beauty Collection. Ulta Beauty offers a portfolio across six categories: cosmetics; haircare products and styling tools; skincare; fragrance and bath; services; and accessories and other. The Company also provides private-label and co-branded credit card programs, loyalty programs, and gift cards. It offers a full range of beauty services in its stores, focusing on hair, makeup, brow, and skin services. The Company operates approximately 1,355 stores across 50 states.</v>
     <v>18500</v>
@@ -1910,25 +1917,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1000 Remington Blvd, Suite 120, BOLINGBROOK, IL, 60440 US</v>
-    <v>479.27</v>
+    <v>489.38</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45262.041624779689</v>
+    <v>45269.034530057812</v>
     <v>0</v>
-    <v>465.00009999999997</v>
-    <v>23237400000</v>
+    <v>481.98</v>
+    <v>23414422483</v>
     <v>ULTA BEAUTY, INC.</v>
     <v>ULTA BEAUTY, INC.</v>
-    <v>475.2</v>
-    <v>17.290199999999999</v>
-    <v>425.99</v>
-    <v>472.03</v>
-    <v>473</v>
-    <v>49228650</v>
+    <v>489.38</v>
+    <v>19.882200000000001</v>
+    <v>489.85</v>
+    <v>482.16</v>
+    <v>481.75</v>
+    <v>48561520</v>
     <v>ULTA</v>
     <v>ULTA BEAUTY, INC. (XNAS:ULTA)</v>
-    <v>3580054</v>
-    <v>707236</v>
+    <v>586135</v>
+    <v>885412</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -14042,7 +14049,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14095,7 +14102,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>23237400000</v>
+        <v>23414422483</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>201</v>
@@ -14123,7 +14130,7 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>21028175364.944027</v>
+        <v>20865464180.194313</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
@@ -14168,21 +14175,21 @@
       </c>
       <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>40977870.533517435</v>
+        <v>40422552.303807184</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>18097597600.241768</v>
+        <v>17954220501.920502</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.10807800000000001</v>
+        <v>-1.5699000000000001E-2</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>213</v>
@@ -14199,7 +14206,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>49228650</v>
+        <v>48561520</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>215</v>
@@ -14227,14 +14234,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>16605825600.241768</v>
+        <v>16462448501.920502</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>472.03</v>
+        <v>482.16</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>220</v>
@@ -14254,7 +14261,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>2.0840717488789235</v>
+        <v>2.0999482047533631</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14282,14 +14289,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>9.0317126957660587E-2</v>
+        <v>9.0826477098158151E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>405.23886146448729</v>
+        <v>407.25900675920434</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>226</v>
@@ -14309,14 +14316,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>18.413153724247227</v>
+        <v>18.553425105388271</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>4.2302495115632555E-2</v>
+        <v>4.1982671181136556E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>229</v>
@@ -14343,7 +14350,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.14149765594456432</v>
+        <v>-0.15534468483655983</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>232</v>
@@ -14670,7 +14677,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14822,7 +14829,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14905,24 +14912,24 @@
       </c>
       <c r="O20" s="102">
         <f>A3</f>
-        <v>23237400000</v>
+        <v>23414422483</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="str" cm="1">
+      <c r="A21" s="117" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="117" cm="1">
+      <c r="B21" s="117"/>
+      <c r="C21" s="118" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2016</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
@@ -14935,7 +14942,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>25117799000</v>
+        <v>25294821483</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -14963,7 +14970,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>7.4863207560503214E-2</v>
+        <v>7.4339287243587307E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -14988,7 +14995,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.92513679243949676</v>
+        <v>0.92566071275641271</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15032,7 +15039,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.0317126957660587E-2</v>
+        <v>9.0826477098158151E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="41"/>
